--- a/U5.xlsx
+++ b/U5.xlsx
@@ -4,20 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="17955" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="17955" windowHeight="11790" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="U5 Wheatley MF" sheetId="1" r:id="rId1"/>
     <sheet name="U5 Speedwell MF" sheetId="2" r:id="rId2"/>
     <sheet name="U5 Jack SA" sheetId="3" r:id="rId3"/>
     <sheet name="U5 Speed SA" sheetId="4" r:id="rId4"/>
+    <sheet name="U5 Headley Sun" sheetId="5" r:id="rId5"/>
+    <sheet name="U5 Speed Sun" sheetId="6" r:id="rId6"/>
+    <sheet name="U5 Jack Sum MF" sheetId="7" r:id="rId7"/>
+    <sheet name="U5 Speed Sum MF" sheetId="8" r:id="rId8"/>
+    <sheet name="U5 Jack Sum Sat" sheetId="9" r:id="rId9"/>
+    <sheet name="Speed Sum Sat" sheetId="10" r:id="rId10"/>
+    <sheet name="Jack Sum Sun" sheetId="11" r:id="rId11"/>
+    <sheet name="Speed Sum Sun" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="27">
   <si>
     <t xml:space="preserve">Speedwell Street </t>
   </si>
@@ -96,6 +104,9 @@
   <si>
     <t xml:space="preserve">U1 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Cherwell Drive </t>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,6 +319,147 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2859,6 +3011,2151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="88">
+        <v>922</v>
+      </c>
+      <c r="C2" s="88">
+        <v>1007</v>
+      </c>
+      <c r="D2" s="88">
+        <v>1052</v>
+      </c>
+      <c r="E2" s="88">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="88">
+        <v>1222</v>
+      </c>
+      <c r="G2" s="88">
+        <v>1307</v>
+      </c>
+      <c r="H2" s="88">
+        <v>1352</v>
+      </c>
+      <c r="I2" s="88">
+        <v>1437</v>
+      </c>
+      <c r="J2" s="88">
+        <v>1522</v>
+      </c>
+      <c r="K2" s="88">
+        <v>1607</v>
+      </c>
+      <c r="L2" s="88">
+        <v>1652</v>
+      </c>
+      <c r="M2" s="88">
+        <v>1737</v>
+      </c>
+      <c r="N2" s="88">
+        <v>1822</v>
+      </c>
+      <c r="O2" s="88">
+        <v>1907</v>
+      </c>
+      <c r="P2" s="88">
+        <v>1952</v>
+      </c>
+      <c r="Q2" s="88">
+        <v>2037</v>
+      </c>
+      <c r="R2" s="88">
+        <v>2122</v>
+      </c>
+      <c r="S2" s="88">
+        <v>2207</v>
+      </c>
+      <c r="T2" s="88">
+        <v>2252</v>
+      </c>
+      <c r="U2" s="88">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="88">
+        <v>930</v>
+      </c>
+      <c r="C3" s="88">
+        <v>1015</v>
+      </c>
+      <c r="D3" s="88">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="88">
+        <v>1145</v>
+      </c>
+      <c r="F3" s="88">
+        <v>1230</v>
+      </c>
+      <c r="G3" s="88">
+        <v>1315</v>
+      </c>
+      <c r="H3" s="88">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="88">
+        <v>1445</v>
+      </c>
+      <c r="J3" s="88">
+        <v>1530</v>
+      </c>
+      <c r="K3" s="88">
+        <v>1615</v>
+      </c>
+      <c r="L3" s="88">
+        <v>1700</v>
+      </c>
+      <c r="M3" s="88">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="88">
+        <v>1830</v>
+      </c>
+      <c r="O3" s="88">
+        <v>1915</v>
+      </c>
+      <c r="P3" s="88">
+        <v>2000</v>
+      </c>
+      <c r="Q3" s="88">
+        <v>2045</v>
+      </c>
+      <c r="R3" s="88">
+        <v>2130</v>
+      </c>
+      <c r="S3" s="88">
+        <v>2215</v>
+      </c>
+      <c r="T3" s="88">
+        <v>2300</v>
+      </c>
+      <c r="U3" s="88">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="88">
+        <v>940</v>
+      </c>
+      <c r="C4" s="88">
+        <v>1025</v>
+      </c>
+      <c r="D4" s="88">
+        <v>1110</v>
+      </c>
+      <c r="E4" s="88">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="88">
+        <v>1240</v>
+      </c>
+      <c r="G4" s="88">
+        <v>1325</v>
+      </c>
+      <c r="H4" s="88">
+        <v>1410</v>
+      </c>
+      <c r="I4" s="88">
+        <v>1455</v>
+      </c>
+      <c r="J4" s="88">
+        <v>1540</v>
+      </c>
+      <c r="K4" s="88">
+        <v>1625</v>
+      </c>
+      <c r="L4" s="88">
+        <v>1710</v>
+      </c>
+      <c r="M4" s="88">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="88">
+        <v>1840</v>
+      </c>
+      <c r="O4" s="88">
+        <v>1925</v>
+      </c>
+      <c r="P4" s="88">
+        <v>2010</v>
+      </c>
+      <c r="Q4" s="88">
+        <v>2055</v>
+      </c>
+      <c r="R4" s="88">
+        <v>2140</v>
+      </c>
+      <c r="S4" s="88">
+        <v>2225</v>
+      </c>
+      <c r="T4" s="88">
+        <v>2310</v>
+      </c>
+      <c r="U4" s="88">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="88">
+        <v>947</v>
+      </c>
+      <c r="C5" s="88">
+        <v>1032</v>
+      </c>
+      <c r="D5" s="88">
+        <v>1117</v>
+      </c>
+      <c r="E5" s="88">
+        <v>1202</v>
+      </c>
+      <c r="F5" s="88">
+        <v>1247</v>
+      </c>
+      <c r="G5" s="88">
+        <v>1332</v>
+      </c>
+      <c r="H5" s="88">
+        <v>1417</v>
+      </c>
+      <c r="I5" s="88">
+        <v>1502</v>
+      </c>
+      <c r="J5" s="88">
+        <v>1547</v>
+      </c>
+      <c r="K5" s="88">
+        <v>1632</v>
+      </c>
+      <c r="L5" s="88">
+        <v>1717</v>
+      </c>
+      <c r="M5" s="88">
+        <v>1802</v>
+      </c>
+      <c r="N5" s="88">
+        <v>1847</v>
+      </c>
+      <c r="O5" s="88">
+        <v>1932</v>
+      </c>
+      <c r="P5" s="88">
+        <v>2017</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>2102</v>
+      </c>
+      <c r="R5" s="88">
+        <v>2147</v>
+      </c>
+      <c r="S5" s="88">
+        <v>2232</v>
+      </c>
+      <c r="T5" s="88">
+        <v>2317</v>
+      </c>
+      <c r="U5" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="88">
+        <v>948</v>
+      </c>
+      <c r="C6" s="88">
+        <v>1033</v>
+      </c>
+      <c r="D6" s="88">
+        <v>1118</v>
+      </c>
+      <c r="E6" s="88">
+        <v>1203</v>
+      </c>
+      <c r="F6" s="88">
+        <v>1248</v>
+      </c>
+      <c r="G6" s="88">
+        <v>1333</v>
+      </c>
+      <c r="H6" s="88">
+        <v>1418</v>
+      </c>
+      <c r="I6" s="88">
+        <v>1503</v>
+      </c>
+      <c r="J6" s="88">
+        <v>1548</v>
+      </c>
+      <c r="K6" s="88">
+        <v>1633</v>
+      </c>
+      <c r="L6" s="88">
+        <v>1718</v>
+      </c>
+      <c r="M6" s="88">
+        <v>1803</v>
+      </c>
+      <c r="N6" s="88">
+        <v>1848</v>
+      </c>
+      <c r="O6" s="88">
+        <v>1933</v>
+      </c>
+      <c r="P6" s="88">
+        <v>2018</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>2103</v>
+      </c>
+      <c r="R6" s="88">
+        <v>2148</v>
+      </c>
+      <c r="S6" s="88">
+        <v>2233</v>
+      </c>
+      <c r="T6" s="88">
+        <v>2318</v>
+      </c>
+      <c r="U6" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="88">
+        <v>949</v>
+      </c>
+      <c r="C7" s="88">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="88">
+        <v>1119</v>
+      </c>
+      <c r="E7" s="88">
+        <v>1204</v>
+      </c>
+      <c r="F7" s="88">
+        <v>1249</v>
+      </c>
+      <c r="G7" s="88">
+        <v>1334</v>
+      </c>
+      <c r="H7" s="88">
+        <v>1419</v>
+      </c>
+      <c r="I7" s="88">
+        <v>1504</v>
+      </c>
+      <c r="J7" s="88">
+        <v>1549</v>
+      </c>
+      <c r="K7" s="88">
+        <v>1634</v>
+      </c>
+      <c r="L7" s="88">
+        <v>1719</v>
+      </c>
+      <c r="M7" s="88">
+        <v>1804</v>
+      </c>
+      <c r="N7" s="88">
+        <v>1849</v>
+      </c>
+      <c r="O7" s="88">
+        <v>1934</v>
+      </c>
+      <c r="P7" s="88">
+        <v>2019</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>2104</v>
+      </c>
+      <c r="R7" s="88">
+        <v>2149</v>
+      </c>
+      <c r="S7" s="88">
+        <v>2234</v>
+      </c>
+      <c r="T7" s="88">
+        <v>2319</v>
+      </c>
+      <c r="U7" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="88">
+        <v>951</v>
+      </c>
+      <c r="C8" s="88">
+        <v>1036</v>
+      </c>
+      <c r="D8" s="88">
+        <v>1121</v>
+      </c>
+      <c r="E8" s="88">
+        <v>1206</v>
+      </c>
+      <c r="F8" s="88">
+        <v>1251</v>
+      </c>
+      <c r="G8" s="88">
+        <v>1336</v>
+      </c>
+      <c r="H8" s="88">
+        <v>1421</v>
+      </c>
+      <c r="I8" s="88">
+        <v>1506</v>
+      </c>
+      <c r="J8" s="88">
+        <v>1551</v>
+      </c>
+      <c r="K8" s="88">
+        <v>1636</v>
+      </c>
+      <c r="L8" s="88">
+        <v>1721</v>
+      </c>
+      <c r="M8" s="88">
+        <v>1806</v>
+      </c>
+      <c r="N8" s="88">
+        <v>1851</v>
+      </c>
+      <c r="O8" s="88">
+        <v>1936</v>
+      </c>
+      <c r="P8" s="88">
+        <v>2021</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>2106</v>
+      </c>
+      <c r="R8" s="88">
+        <v>2151</v>
+      </c>
+      <c r="S8" s="88">
+        <v>2236</v>
+      </c>
+      <c r="T8" s="88">
+        <v>2321</v>
+      </c>
+      <c r="U8" s="89"/>
+    </row>
+    <row r="9" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="88">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="88">
+        <v>1046</v>
+      </c>
+      <c r="D9" s="88">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="88">
+        <v>1216</v>
+      </c>
+      <c r="F9" s="88">
+        <v>1301</v>
+      </c>
+      <c r="G9" s="88">
+        <v>1346</v>
+      </c>
+      <c r="H9" s="88">
+        <v>1431</v>
+      </c>
+      <c r="I9" s="88">
+        <v>1516</v>
+      </c>
+      <c r="J9" s="88">
+        <v>1601</v>
+      </c>
+      <c r="K9" s="88">
+        <v>1646</v>
+      </c>
+      <c r="L9" s="88">
+        <v>1731</v>
+      </c>
+      <c r="M9" s="88">
+        <v>1816</v>
+      </c>
+      <c r="N9" s="88">
+        <v>1901</v>
+      </c>
+      <c r="O9" s="88">
+        <v>1946</v>
+      </c>
+      <c r="P9" s="88">
+        <v>2031</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>2116</v>
+      </c>
+      <c r="R9" s="88">
+        <v>2201</v>
+      </c>
+      <c r="S9" s="88">
+        <v>2246</v>
+      </c>
+      <c r="T9" s="88">
+        <v>2331</v>
+      </c>
+      <c r="U9" s="89"/>
+    </row>
+    <row r="10" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="88">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="88">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="88">
+        <v>1134</v>
+      </c>
+      <c r="E10" s="88">
+        <v>1219</v>
+      </c>
+      <c r="F10" s="88">
+        <v>1304</v>
+      </c>
+      <c r="G10" s="88">
+        <v>1349</v>
+      </c>
+      <c r="H10" s="88">
+        <v>1434</v>
+      </c>
+      <c r="I10" s="88">
+        <v>1519</v>
+      </c>
+      <c r="J10" s="88">
+        <v>1604</v>
+      </c>
+      <c r="K10" s="88">
+        <v>1649</v>
+      </c>
+      <c r="L10" s="88">
+        <v>1734</v>
+      </c>
+      <c r="M10" s="88">
+        <v>1819</v>
+      </c>
+      <c r="N10" s="88">
+        <v>1904</v>
+      </c>
+      <c r="O10" s="88">
+        <v>1949</v>
+      </c>
+      <c r="P10" s="88">
+        <v>2034</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>2119</v>
+      </c>
+      <c r="R10" s="88">
+        <v>2204</v>
+      </c>
+      <c r="S10" s="88">
+        <v>2249</v>
+      </c>
+      <c r="T10" s="88">
+        <v>2334</v>
+      </c>
+      <c r="U10" s="89"/>
+    </row>
+    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="88">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="88">
+        <v>1051</v>
+      </c>
+      <c r="D11" s="88">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="88">
+        <v>1221</v>
+      </c>
+      <c r="F11" s="88">
+        <v>1306</v>
+      </c>
+      <c r="G11" s="88">
+        <v>1351</v>
+      </c>
+      <c r="H11" s="88">
+        <v>1436</v>
+      </c>
+      <c r="I11" s="88">
+        <v>1521</v>
+      </c>
+      <c r="J11" s="88">
+        <v>1606</v>
+      </c>
+      <c r="K11" s="88">
+        <v>1651</v>
+      </c>
+      <c r="L11" s="88">
+        <v>1736</v>
+      </c>
+      <c r="M11" s="88">
+        <v>1821</v>
+      </c>
+      <c r="N11" s="88">
+        <v>1906</v>
+      </c>
+      <c r="O11" s="88">
+        <v>1951</v>
+      </c>
+      <c r="P11" s="88">
+        <v>2036</v>
+      </c>
+      <c r="Q11" s="88">
+        <v>2121</v>
+      </c>
+      <c r="R11" s="88">
+        <v>2206</v>
+      </c>
+      <c r="S11" s="88">
+        <v>2251</v>
+      </c>
+      <c r="T11" s="88">
+        <v>2336</v>
+      </c>
+      <c r="U11" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="93">
+        <v>1010</v>
+      </c>
+      <c r="C2" s="93">
+        <v>1055</v>
+      </c>
+      <c r="D2" s="93">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="93">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="93">
+        <v>1310</v>
+      </c>
+      <c r="G2" s="93">
+        <v>1355</v>
+      </c>
+      <c r="H2" s="93">
+        <v>1440</v>
+      </c>
+      <c r="I2" s="93">
+        <v>1525</v>
+      </c>
+      <c r="J2" s="93">
+        <v>1610</v>
+      </c>
+      <c r="K2" s="93">
+        <v>1655</v>
+      </c>
+      <c r="L2" s="93">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="93">
+        <v>1825</v>
+      </c>
+      <c r="N2" s="93">
+        <v>1910</v>
+      </c>
+      <c r="O2" s="93">
+        <v>1955</v>
+      </c>
+      <c r="P2" s="93">
+        <v>2040</v>
+      </c>
+      <c r="Q2" s="93">
+        <v>2125</v>
+      </c>
+      <c r="R2" s="93">
+        <v>2210</v>
+      </c>
+      <c r="S2" s="93">
+        <v>2255</v>
+      </c>
+      <c r="T2" s="93">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="93">
+        <v>1015</v>
+      </c>
+      <c r="C3" s="93">
+        <v>1100</v>
+      </c>
+      <c r="D3" s="93">
+        <v>1145</v>
+      </c>
+      <c r="E3" s="93">
+        <v>1230</v>
+      </c>
+      <c r="F3" s="93">
+        <v>1315</v>
+      </c>
+      <c r="G3" s="93">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="93">
+        <v>1445</v>
+      </c>
+      <c r="I3" s="93">
+        <v>1530</v>
+      </c>
+      <c r="J3" s="93">
+        <v>1615</v>
+      </c>
+      <c r="K3" s="93">
+        <v>1700</v>
+      </c>
+      <c r="L3" s="93">
+        <v>1745</v>
+      </c>
+      <c r="M3" s="93">
+        <v>1830</v>
+      </c>
+      <c r="N3" s="93">
+        <v>1915</v>
+      </c>
+      <c r="O3" s="93">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="93">
+        <v>2045</v>
+      </c>
+      <c r="Q3" s="93">
+        <v>2130</v>
+      </c>
+      <c r="R3" s="93">
+        <v>2215</v>
+      </c>
+      <c r="S3" s="93">
+        <v>2300</v>
+      </c>
+      <c r="T3" s="93">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="93">
+        <v>1019</v>
+      </c>
+      <c r="C4" s="93">
+        <v>1104</v>
+      </c>
+      <c r="D4" s="93">
+        <v>1149</v>
+      </c>
+      <c r="E4" s="93">
+        <v>1234</v>
+      </c>
+      <c r="F4" s="93">
+        <v>1319</v>
+      </c>
+      <c r="G4" s="93">
+        <v>1404</v>
+      </c>
+      <c r="H4" s="93">
+        <v>1449</v>
+      </c>
+      <c r="I4" s="93">
+        <v>1534</v>
+      </c>
+      <c r="J4" s="93">
+        <v>1619</v>
+      </c>
+      <c r="K4" s="93">
+        <v>1704</v>
+      </c>
+      <c r="L4" s="93">
+        <v>1749</v>
+      </c>
+      <c r="M4" s="93">
+        <v>1834</v>
+      </c>
+      <c r="N4" s="93">
+        <v>1919</v>
+      </c>
+      <c r="O4" s="93">
+        <v>2004</v>
+      </c>
+      <c r="P4" s="93">
+        <v>2049</v>
+      </c>
+      <c r="Q4" s="93">
+        <v>2134</v>
+      </c>
+      <c r="R4" s="93">
+        <v>2219</v>
+      </c>
+      <c r="S4" s="93">
+        <v>2304</v>
+      </c>
+      <c r="T4" s="93">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="93">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="93">
+        <v>1114</v>
+      </c>
+      <c r="D5" s="93">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="93">
+        <v>1244</v>
+      </c>
+      <c r="F5" s="93">
+        <v>1329</v>
+      </c>
+      <c r="G5" s="93">
+        <v>1414</v>
+      </c>
+      <c r="H5" s="93">
+        <v>1459</v>
+      </c>
+      <c r="I5" s="93">
+        <v>1544</v>
+      </c>
+      <c r="J5" s="93">
+        <v>1629</v>
+      </c>
+      <c r="K5" s="93">
+        <v>1714</v>
+      </c>
+      <c r="L5" s="93">
+        <v>1759</v>
+      </c>
+      <c r="M5" s="93">
+        <v>1844</v>
+      </c>
+      <c r="N5" s="93">
+        <v>1929</v>
+      </c>
+      <c r="O5" s="93">
+        <v>2014</v>
+      </c>
+      <c r="P5" s="93">
+        <v>2059</v>
+      </c>
+      <c r="Q5" s="93">
+        <v>2144</v>
+      </c>
+      <c r="R5" s="93">
+        <v>2229</v>
+      </c>
+      <c r="S5" s="93">
+        <v>2314</v>
+      </c>
+      <c r="T5" s="93">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="93">
+        <v>1030</v>
+      </c>
+      <c r="C6" s="93">
+        <v>1115</v>
+      </c>
+      <c r="D6" s="93">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="93">
+        <v>1245</v>
+      </c>
+      <c r="F6" s="93">
+        <v>1330</v>
+      </c>
+      <c r="G6" s="93">
+        <v>1415</v>
+      </c>
+      <c r="H6" s="93">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="93">
+        <v>1545</v>
+      </c>
+      <c r="J6" s="93">
+        <v>1630</v>
+      </c>
+      <c r="K6" s="93">
+        <v>1715</v>
+      </c>
+      <c r="L6" s="93">
+        <v>1800</v>
+      </c>
+      <c r="M6" s="93">
+        <v>1845</v>
+      </c>
+      <c r="N6" s="93">
+        <v>1930</v>
+      </c>
+      <c r="O6" s="93">
+        <v>2015</v>
+      </c>
+      <c r="P6" s="93">
+        <v>2100</v>
+      </c>
+      <c r="Q6" s="93">
+        <v>2145</v>
+      </c>
+      <c r="R6" s="93">
+        <v>2230</v>
+      </c>
+      <c r="S6" s="93">
+        <v>2315</v>
+      </c>
+      <c r="T6" s="93">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="93">
+        <v>1032</v>
+      </c>
+      <c r="C7" s="93">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="93">
+        <v>1202</v>
+      </c>
+      <c r="E7" s="93">
+        <v>1247</v>
+      </c>
+      <c r="F7" s="93">
+        <v>1332</v>
+      </c>
+      <c r="G7" s="93">
+        <v>1417</v>
+      </c>
+      <c r="H7" s="93">
+        <v>1502</v>
+      </c>
+      <c r="I7" s="93">
+        <v>1547</v>
+      </c>
+      <c r="J7" s="93">
+        <v>1632</v>
+      </c>
+      <c r="K7" s="93">
+        <v>1717</v>
+      </c>
+      <c r="L7" s="93">
+        <v>1802</v>
+      </c>
+      <c r="M7" s="93">
+        <v>1847</v>
+      </c>
+      <c r="N7" s="93">
+        <v>1932</v>
+      </c>
+      <c r="O7" s="93">
+        <v>2017</v>
+      </c>
+      <c r="P7" s="93">
+        <v>2102</v>
+      </c>
+      <c r="Q7" s="93">
+        <v>2147</v>
+      </c>
+      <c r="R7" s="93">
+        <v>2232</v>
+      </c>
+      <c r="S7" s="93">
+        <v>2317</v>
+      </c>
+      <c r="T7" s="93">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="93">
+        <v>1033</v>
+      </c>
+      <c r="C8" s="93">
+        <v>1118</v>
+      </c>
+      <c r="D8" s="93">
+        <v>1203</v>
+      </c>
+      <c r="E8" s="93">
+        <v>1248</v>
+      </c>
+      <c r="F8" s="93">
+        <v>1333</v>
+      </c>
+      <c r="G8" s="93">
+        <v>1418</v>
+      </c>
+      <c r="H8" s="93">
+        <v>1503</v>
+      </c>
+      <c r="I8" s="93">
+        <v>1548</v>
+      </c>
+      <c r="J8" s="93">
+        <v>1633</v>
+      </c>
+      <c r="K8" s="93">
+        <v>1718</v>
+      </c>
+      <c r="L8" s="93">
+        <v>1803</v>
+      </c>
+      <c r="M8" s="93">
+        <v>1848</v>
+      </c>
+      <c r="N8" s="93">
+        <v>1933</v>
+      </c>
+      <c r="O8" s="93">
+        <v>2018</v>
+      </c>
+      <c r="P8" s="93">
+        <v>2103</v>
+      </c>
+      <c r="Q8" s="93">
+        <v>2148</v>
+      </c>
+      <c r="R8" s="93">
+        <v>2233</v>
+      </c>
+      <c r="S8" s="93">
+        <v>2318</v>
+      </c>
+      <c r="T8" s="93">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="93">
+        <v>1042</v>
+      </c>
+      <c r="C9" s="93">
+        <v>1127</v>
+      </c>
+      <c r="D9" s="93">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="93">
+        <v>1257</v>
+      </c>
+      <c r="F9" s="93">
+        <v>1342</v>
+      </c>
+      <c r="G9" s="93">
+        <v>1427</v>
+      </c>
+      <c r="H9" s="93">
+        <v>1512</v>
+      </c>
+      <c r="I9" s="93">
+        <v>1557</v>
+      </c>
+      <c r="J9" s="93">
+        <v>1642</v>
+      </c>
+      <c r="K9" s="93">
+        <v>1727</v>
+      </c>
+      <c r="L9" s="93">
+        <v>1812</v>
+      </c>
+      <c r="M9" s="93">
+        <v>1857</v>
+      </c>
+      <c r="N9" s="93">
+        <v>1942</v>
+      </c>
+      <c r="O9" s="93">
+        <v>2027</v>
+      </c>
+      <c r="P9" s="93">
+        <v>2112</v>
+      </c>
+      <c r="Q9" s="93">
+        <v>2157</v>
+      </c>
+      <c r="R9" s="93">
+        <v>2242</v>
+      </c>
+      <c r="S9" s="93">
+        <v>2327</v>
+      </c>
+      <c r="T9" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="93">
+        <v>1044</v>
+      </c>
+      <c r="C10" s="93">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="93">
+        <v>1214</v>
+      </c>
+      <c r="E10" s="93">
+        <v>1259</v>
+      </c>
+      <c r="F10" s="93">
+        <v>1344</v>
+      </c>
+      <c r="G10" s="93">
+        <v>1429</v>
+      </c>
+      <c r="H10" s="93">
+        <v>1514</v>
+      </c>
+      <c r="I10" s="93">
+        <v>1559</v>
+      </c>
+      <c r="J10" s="93">
+        <v>1644</v>
+      </c>
+      <c r="K10" s="93">
+        <v>1729</v>
+      </c>
+      <c r="L10" s="93">
+        <v>1814</v>
+      </c>
+      <c r="M10" s="93">
+        <v>1859</v>
+      </c>
+      <c r="N10" s="93">
+        <v>1944</v>
+      </c>
+      <c r="O10" s="93">
+        <v>2029</v>
+      </c>
+      <c r="P10" s="93">
+        <v>2114</v>
+      </c>
+      <c r="Q10" s="93">
+        <v>2159</v>
+      </c>
+      <c r="R10" s="93">
+        <v>2244</v>
+      </c>
+      <c r="S10" s="93">
+        <v>2329</v>
+      </c>
+      <c r="T10" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="93">
+        <v>1052</v>
+      </c>
+      <c r="C11" s="93">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="93">
+        <v>1222</v>
+      </c>
+      <c r="E11" s="93">
+        <v>1307</v>
+      </c>
+      <c r="F11" s="93">
+        <v>1352</v>
+      </c>
+      <c r="G11" s="93">
+        <v>1437</v>
+      </c>
+      <c r="H11" s="93">
+        <v>1522</v>
+      </c>
+      <c r="I11" s="93">
+        <v>1607</v>
+      </c>
+      <c r="J11" s="93">
+        <v>1652</v>
+      </c>
+      <c r="K11" s="93">
+        <v>1737</v>
+      </c>
+      <c r="L11" s="93">
+        <v>1822</v>
+      </c>
+      <c r="M11" s="93">
+        <v>1907</v>
+      </c>
+      <c r="N11" s="93">
+        <v>1952</v>
+      </c>
+      <c r="O11" s="93">
+        <v>2037</v>
+      </c>
+      <c r="P11" s="93">
+        <v>2122</v>
+      </c>
+      <c r="Q11" s="93">
+        <v>2207</v>
+      </c>
+      <c r="R11" s="93">
+        <v>2252</v>
+      </c>
+      <c r="S11" s="93">
+        <v>2337</v>
+      </c>
+      <c r="T11" s="94"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="98">
+        <v>922</v>
+      </c>
+      <c r="C2" s="98">
+        <v>1007</v>
+      </c>
+      <c r="D2" s="98">
+        <v>1052</v>
+      </c>
+      <c r="E2" s="98">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="98">
+        <v>1222</v>
+      </c>
+      <c r="G2" s="98">
+        <v>1307</v>
+      </c>
+      <c r="H2" s="98">
+        <v>1352</v>
+      </c>
+      <c r="I2" s="98">
+        <v>1437</v>
+      </c>
+      <c r="J2" s="98">
+        <v>1522</v>
+      </c>
+      <c r="K2" s="98">
+        <v>1607</v>
+      </c>
+      <c r="L2" s="98">
+        <v>1652</v>
+      </c>
+      <c r="M2" s="98">
+        <v>1737</v>
+      </c>
+      <c r="N2" s="98">
+        <v>1822</v>
+      </c>
+      <c r="O2" s="98">
+        <v>1907</v>
+      </c>
+      <c r="P2" s="98">
+        <v>1952</v>
+      </c>
+      <c r="Q2" s="98">
+        <v>2037</v>
+      </c>
+      <c r="R2" s="98">
+        <v>2122</v>
+      </c>
+      <c r="S2" s="98">
+        <v>2207</v>
+      </c>
+      <c r="T2" s="98">
+        <v>2252</v>
+      </c>
+      <c r="U2" s="98">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="98">
+        <v>930</v>
+      </c>
+      <c r="C3" s="98">
+        <v>1015</v>
+      </c>
+      <c r="D3" s="98">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="98">
+        <v>1145</v>
+      </c>
+      <c r="F3" s="98">
+        <v>1230</v>
+      </c>
+      <c r="G3" s="98">
+        <v>1315</v>
+      </c>
+      <c r="H3" s="98">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="98">
+        <v>1445</v>
+      </c>
+      <c r="J3" s="98">
+        <v>1530</v>
+      </c>
+      <c r="K3" s="98">
+        <v>1615</v>
+      </c>
+      <c r="L3" s="98">
+        <v>1700</v>
+      </c>
+      <c r="M3" s="98">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="98">
+        <v>1830</v>
+      </c>
+      <c r="O3" s="98">
+        <v>1915</v>
+      </c>
+      <c r="P3" s="98">
+        <v>2000</v>
+      </c>
+      <c r="Q3" s="98">
+        <v>2045</v>
+      </c>
+      <c r="R3" s="98">
+        <v>2130</v>
+      </c>
+      <c r="S3" s="98">
+        <v>2215</v>
+      </c>
+      <c r="T3" s="98">
+        <v>2300</v>
+      </c>
+      <c r="U3" s="98">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="98">
+        <v>940</v>
+      </c>
+      <c r="C4" s="98">
+        <v>1025</v>
+      </c>
+      <c r="D4" s="98">
+        <v>1110</v>
+      </c>
+      <c r="E4" s="98">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="98">
+        <v>1240</v>
+      </c>
+      <c r="G4" s="98">
+        <v>1325</v>
+      </c>
+      <c r="H4" s="98">
+        <v>1410</v>
+      </c>
+      <c r="I4" s="98">
+        <v>1455</v>
+      </c>
+      <c r="J4" s="98">
+        <v>1540</v>
+      </c>
+      <c r="K4" s="98">
+        <v>1625</v>
+      </c>
+      <c r="L4" s="98">
+        <v>1710</v>
+      </c>
+      <c r="M4" s="98">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="98">
+        <v>1840</v>
+      </c>
+      <c r="O4" s="98">
+        <v>1925</v>
+      </c>
+      <c r="P4" s="98">
+        <v>2010</v>
+      </c>
+      <c r="Q4" s="98">
+        <v>2055</v>
+      </c>
+      <c r="R4" s="98">
+        <v>2140</v>
+      </c>
+      <c r="S4" s="98">
+        <v>2225</v>
+      </c>
+      <c r="T4" s="98">
+        <v>2310</v>
+      </c>
+      <c r="U4" s="98">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="98">
+        <v>947</v>
+      </c>
+      <c r="C5" s="98">
+        <v>1032</v>
+      </c>
+      <c r="D5" s="98">
+        <v>1117</v>
+      </c>
+      <c r="E5" s="98">
+        <v>1202</v>
+      </c>
+      <c r="F5" s="98">
+        <v>1247</v>
+      </c>
+      <c r="G5" s="98">
+        <v>1332</v>
+      </c>
+      <c r="H5" s="98">
+        <v>1417</v>
+      </c>
+      <c r="I5" s="98">
+        <v>1502</v>
+      </c>
+      <c r="J5" s="98">
+        <v>1547</v>
+      </c>
+      <c r="K5" s="98">
+        <v>1632</v>
+      </c>
+      <c r="L5" s="98">
+        <v>1717</v>
+      </c>
+      <c r="M5" s="98">
+        <v>1802</v>
+      </c>
+      <c r="N5" s="98">
+        <v>1847</v>
+      </c>
+      <c r="O5" s="98">
+        <v>1932</v>
+      </c>
+      <c r="P5" s="98">
+        <v>2017</v>
+      </c>
+      <c r="Q5" s="98">
+        <v>2102</v>
+      </c>
+      <c r="R5" s="98">
+        <v>2147</v>
+      </c>
+      <c r="S5" s="98">
+        <v>2232</v>
+      </c>
+      <c r="T5" s="98">
+        <v>2317</v>
+      </c>
+      <c r="U5" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="98">
+        <v>948</v>
+      </c>
+      <c r="C6" s="98">
+        <v>1033</v>
+      </c>
+      <c r="D6" s="98">
+        <v>1118</v>
+      </c>
+      <c r="E6" s="98">
+        <v>1203</v>
+      </c>
+      <c r="F6" s="98">
+        <v>1248</v>
+      </c>
+      <c r="G6" s="98">
+        <v>1333</v>
+      </c>
+      <c r="H6" s="98">
+        <v>1418</v>
+      </c>
+      <c r="I6" s="98">
+        <v>1503</v>
+      </c>
+      <c r="J6" s="98">
+        <v>1548</v>
+      </c>
+      <c r="K6" s="98">
+        <v>1633</v>
+      </c>
+      <c r="L6" s="98">
+        <v>1718</v>
+      </c>
+      <c r="M6" s="98">
+        <v>1803</v>
+      </c>
+      <c r="N6" s="98">
+        <v>1848</v>
+      </c>
+      <c r="O6" s="98">
+        <v>1933</v>
+      </c>
+      <c r="P6" s="98">
+        <v>2018</v>
+      </c>
+      <c r="Q6" s="98">
+        <v>2103</v>
+      </c>
+      <c r="R6" s="98">
+        <v>2148</v>
+      </c>
+      <c r="S6" s="98">
+        <v>2233</v>
+      </c>
+      <c r="T6" s="98">
+        <v>2318</v>
+      </c>
+      <c r="U6" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="98">
+        <v>949</v>
+      </c>
+      <c r="C7" s="98">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="98">
+        <v>1119</v>
+      </c>
+      <c r="E7" s="98">
+        <v>1204</v>
+      </c>
+      <c r="F7" s="98">
+        <v>1249</v>
+      </c>
+      <c r="G7" s="98">
+        <v>1334</v>
+      </c>
+      <c r="H7" s="98">
+        <v>1419</v>
+      </c>
+      <c r="I7" s="98">
+        <v>1504</v>
+      </c>
+      <c r="J7" s="98">
+        <v>1549</v>
+      </c>
+      <c r="K7" s="98">
+        <v>1634</v>
+      </c>
+      <c r="L7" s="98">
+        <v>1719</v>
+      </c>
+      <c r="M7" s="98">
+        <v>1804</v>
+      </c>
+      <c r="N7" s="98">
+        <v>1849</v>
+      </c>
+      <c r="O7" s="98">
+        <v>1934</v>
+      </c>
+      <c r="P7" s="98">
+        <v>2019</v>
+      </c>
+      <c r="Q7" s="98">
+        <v>2104</v>
+      </c>
+      <c r="R7" s="98">
+        <v>2149</v>
+      </c>
+      <c r="S7" s="98">
+        <v>2234</v>
+      </c>
+      <c r="T7" s="98">
+        <v>2319</v>
+      </c>
+      <c r="U7" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="98">
+        <v>951</v>
+      </c>
+      <c r="C8" s="98">
+        <v>1036</v>
+      </c>
+      <c r="D8" s="98">
+        <v>1121</v>
+      </c>
+      <c r="E8" s="98">
+        <v>1206</v>
+      </c>
+      <c r="F8" s="98">
+        <v>1251</v>
+      </c>
+      <c r="G8" s="98">
+        <v>1336</v>
+      </c>
+      <c r="H8" s="98">
+        <v>1421</v>
+      </c>
+      <c r="I8" s="98">
+        <v>1506</v>
+      </c>
+      <c r="J8" s="98">
+        <v>1551</v>
+      </c>
+      <c r="K8" s="98">
+        <v>1636</v>
+      </c>
+      <c r="L8" s="98">
+        <v>1721</v>
+      </c>
+      <c r="M8" s="98">
+        <v>1806</v>
+      </c>
+      <c r="N8" s="98">
+        <v>1851</v>
+      </c>
+      <c r="O8" s="98">
+        <v>1936</v>
+      </c>
+      <c r="P8" s="98">
+        <v>2021</v>
+      </c>
+      <c r="Q8" s="98">
+        <v>2106</v>
+      </c>
+      <c r="R8" s="98">
+        <v>2151</v>
+      </c>
+      <c r="S8" s="98">
+        <v>2236</v>
+      </c>
+      <c r="T8" s="98">
+        <v>2321</v>
+      </c>
+      <c r="U8" s="99"/>
+    </row>
+    <row r="9" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="98">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="98">
+        <v>1046</v>
+      </c>
+      <c r="D9" s="98">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="98">
+        <v>1216</v>
+      </c>
+      <c r="F9" s="98">
+        <v>1301</v>
+      </c>
+      <c r="G9" s="98">
+        <v>1346</v>
+      </c>
+      <c r="H9" s="98">
+        <v>1431</v>
+      </c>
+      <c r="I9" s="98">
+        <v>1516</v>
+      </c>
+      <c r="J9" s="98">
+        <v>1601</v>
+      </c>
+      <c r="K9" s="98">
+        <v>1646</v>
+      </c>
+      <c r="L9" s="98">
+        <v>1731</v>
+      </c>
+      <c r="M9" s="98">
+        <v>1816</v>
+      </c>
+      <c r="N9" s="98">
+        <v>1901</v>
+      </c>
+      <c r="O9" s="98">
+        <v>1946</v>
+      </c>
+      <c r="P9" s="98">
+        <v>2031</v>
+      </c>
+      <c r="Q9" s="98">
+        <v>2116</v>
+      </c>
+      <c r="R9" s="98">
+        <v>2201</v>
+      </c>
+      <c r="S9" s="98">
+        <v>2246</v>
+      </c>
+      <c r="T9" s="98">
+        <v>2331</v>
+      </c>
+      <c r="U9" s="99"/>
+    </row>
+    <row r="10" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="98">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="98">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="98">
+        <v>1134</v>
+      </c>
+      <c r="E10" s="98">
+        <v>1219</v>
+      </c>
+      <c r="F10" s="98">
+        <v>1304</v>
+      </c>
+      <c r="G10" s="98">
+        <v>1349</v>
+      </c>
+      <c r="H10" s="98">
+        <v>1434</v>
+      </c>
+      <c r="I10" s="98">
+        <v>1519</v>
+      </c>
+      <c r="J10" s="98">
+        <v>1604</v>
+      </c>
+      <c r="K10" s="98">
+        <v>1649</v>
+      </c>
+      <c r="L10" s="98">
+        <v>1734</v>
+      </c>
+      <c r="M10" s="98">
+        <v>1819</v>
+      </c>
+      <c r="N10" s="98">
+        <v>1904</v>
+      </c>
+      <c r="O10" s="98">
+        <v>1949</v>
+      </c>
+      <c r="P10" s="98">
+        <v>2034</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>2119</v>
+      </c>
+      <c r="R10" s="98">
+        <v>2204</v>
+      </c>
+      <c r="S10" s="98">
+        <v>2249</v>
+      </c>
+      <c r="T10" s="98">
+        <v>2334</v>
+      </c>
+      <c r="U10" s="99"/>
+    </row>
+    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="98">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="98">
+        <v>1051</v>
+      </c>
+      <c r="D11" s="98">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="98">
+        <v>1221</v>
+      </c>
+      <c r="F11" s="98">
+        <v>1306</v>
+      </c>
+      <c r="G11" s="98">
+        <v>1351</v>
+      </c>
+      <c r="H11" s="98">
+        <v>1436</v>
+      </c>
+      <c r="I11" s="98">
+        <v>1521</v>
+      </c>
+      <c r="J11" s="98">
+        <v>1606</v>
+      </c>
+      <c r="K11" s="98">
+        <v>1651</v>
+      </c>
+      <c r="L11" s="98">
+        <v>1736</v>
+      </c>
+      <c r="M11" s="98">
+        <v>1821</v>
+      </c>
+      <c r="N11" s="98">
+        <v>1906</v>
+      </c>
+      <c r="O11" s="98">
+        <v>1951</v>
+      </c>
+      <c r="P11" s="98">
+        <v>2036</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>2121</v>
+      </c>
+      <c r="R11" s="98">
+        <v>2206</v>
+      </c>
+      <c r="S11" s="98">
+        <v>2251</v>
+      </c>
+      <c r="T11" s="98">
+        <v>2336</v>
+      </c>
+      <c r="U11" s="99"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW17"/>
@@ -5599,7 +7896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -6463,4 +8760,3983 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56">
+        <v>1010</v>
+      </c>
+      <c r="C2" s="56">
+        <v>1055</v>
+      </c>
+      <c r="D2" s="56">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="56">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="56">
+        <v>1310</v>
+      </c>
+      <c r="G2" s="56">
+        <v>1355</v>
+      </c>
+      <c r="H2" s="56">
+        <v>1440</v>
+      </c>
+      <c r="I2" s="56">
+        <v>1525</v>
+      </c>
+      <c r="J2" s="56">
+        <v>1610</v>
+      </c>
+      <c r="K2" s="56">
+        <v>1655</v>
+      </c>
+      <c r="L2" s="56">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="56">
+        <v>1825</v>
+      </c>
+      <c r="N2" s="56">
+        <v>1910</v>
+      </c>
+      <c r="O2" s="56">
+        <v>1955</v>
+      </c>
+      <c r="P2" s="56">
+        <v>2040</v>
+      </c>
+      <c r="Q2" s="56">
+        <v>2125</v>
+      </c>
+      <c r="R2" s="56">
+        <v>2210</v>
+      </c>
+      <c r="S2" s="56">
+        <v>2255</v>
+      </c>
+      <c r="T2" s="56">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56">
+        <v>1015</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1100</v>
+      </c>
+      <c r="D3" s="56">
+        <v>1145</v>
+      </c>
+      <c r="E3" s="56">
+        <v>1230</v>
+      </c>
+      <c r="F3" s="56">
+        <v>1315</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="56">
+        <v>1445</v>
+      </c>
+      <c r="I3" s="56">
+        <v>1530</v>
+      </c>
+      <c r="J3" s="56">
+        <v>1615</v>
+      </c>
+      <c r="K3" s="56">
+        <v>1700</v>
+      </c>
+      <c r="L3" s="56">
+        <v>1745</v>
+      </c>
+      <c r="M3" s="56">
+        <v>1830</v>
+      </c>
+      <c r="N3" s="56">
+        <v>1915</v>
+      </c>
+      <c r="O3" s="56">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="56">
+        <v>2045</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>2130</v>
+      </c>
+      <c r="R3" s="56">
+        <v>2215</v>
+      </c>
+      <c r="S3" s="56">
+        <v>2300</v>
+      </c>
+      <c r="T3" s="56">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1019</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1104</v>
+      </c>
+      <c r="D4" s="56">
+        <v>1149</v>
+      </c>
+      <c r="E4" s="56">
+        <v>1234</v>
+      </c>
+      <c r="F4" s="56">
+        <v>1319</v>
+      </c>
+      <c r="G4" s="56">
+        <v>1404</v>
+      </c>
+      <c r="H4" s="56">
+        <v>1449</v>
+      </c>
+      <c r="I4" s="56">
+        <v>1534</v>
+      </c>
+      <c r="J4" s="56">
+        <v>1619</v>
+      </c>
+      <c r="K4" s="56">
+        <v>1704</v>
+      </c>
+      <c r="L4" s="56">
+        <v>1749</v>
+      </c>
+      <c r="M4" s="56">
+        <v>1834</v>
+      </c>
+      <c r="N4" s="56">
+        <v>1919</v>
+      </c>
+      <c r="O4" s="56">
+        <v>2004</v>
+      </c>
+      <c r="P4" s="56">
+        <v>2049</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>2134</v>
+      </c>
+      <c r="R4" s="56">
+        <v>2219</v>
+      </c>
+      <c r="S4" s="56">
+        <v>2304</v>
+      </c>
+      <c r="T4" s="56">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="56">
+        <v>1114</v>
+      </c>
+      <c r="D5" s="56">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="56">
+        <v>1244</v>
+      </c>
+      <c r="F5" s="56">
+        <v>1329</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1414</v>
+      </c>
+      <c r="H5" s="56">
+        <v>1459</v>
+      </c>
+      <c r="I5" s="56">
+        <v>1544</v>
+      </c>
+      <c r="J5" s="56">
+        <v>1629</v>
+      </c>
+      <c r="K5" s="56">
+        <v>1714</v>
+      </c>
+      <c r="L5" s="56">
+        <v>1759</v>
+      </c>
+      <c r="M5" s="56">
+        <v>1844</v>
+      </c>
+      <c r="N5" s="56">
+        <v>1929</v>
+      </c>
+      <c r="O5" s="56">
+        <v>2014</v>
+      </c>
+      <c r="P5" s="56">
+        <v>2059</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>2144</v>
+      </c>
+      <c r="R5" s="56">
+        <v>2229</v>
+      </c>
+      <c r="S5" s="56">
+        <v>2314</v>
+      </c>
+      <c r="T5" s="56">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56">
+        <v>1030</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1115</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1245</v>
+      </c>
+      <c r="F6" s="56">
+        <v>1330</v>
+      </c>
+      <c r="G6" s="56">
+        <v>1415</v>
+      </c>
+      <c r="H6" s="56">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="56">
+        <v>1545</v>
+      </c>
+      <c r="J6" s="56">
+        <v>1630</v>
+      </c>
+      <c r="K6" s="56">
+        <v>1715</v>
+      </c>
+      <c r="L6" s="56">
+        <v>1800</v>
+      </c>
+      <c r="M6" s="56">
+        <v>1845</v>
+      </c>
+      <c r="N6" s="56">
+        <v>1930</v>
+      </c>
+      <c r="O6" s="56">
+        <v>2015</v>
+      </c>
+      <c r="P6" s="56">
+        <v>2100</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>2145</v>
+      </c>
+      <c r="R6" s="56">
+        <v>2230</v>
+      </c>
+      <c r="S6" s="56">
+        <v>2315</v>
+      </c>
+      <c r="T6" s="56">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56">
+        <v>1032</v>
+      </c>
+      <c r="C7" s="56">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="56">
+        <v>1202</v>
+      </c>
+      <c r="E7" s="56">
+        <v>1247</v>
+      </c>
+      <c r="F7" s="56">
+        <v>1332</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1417</v>
+      </c>
+      <c r="H7" s="56">
+        <v>1502</v>
+      </c>
+      <c r="I7" s="56">
+        <v>1547</v>
+      </c>
+      <c r="J7" s="56">
+        <v>1632</v>
+      </c>
+      <c r="K7" s="56">
+        <v>1717</v>
+      </c>
+      <c r="L7" s="56">
+        <v>1802</v>
+      </c>
+      <c r="M7" s="56">
+        <v>1847</v>
+      </c>
+      <c r="N7" s="56">
+        <v>1932</v>
+      </c>
+      <c r="O7" s="56">
+        <v>2017</v>
+      </c>
+      <c r="P7" s="56">
+        <v>2102</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>2147</v>
+      </c>
+      <c r="R7" s="56">
+        <v>2232</v>
+      </c>
+      <c r="S7" s="56">
+        <v>2317</v>
+      </c>
+      <c r="T7" s="56">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56">
+        <v>1033</v>
+      </c>
+      <c r="C8" s="56">
+        <v>1118</v>
+      </c>
+      <c r="D8" s="56">
+        <v>1203</v>
+      </c>
+      <c r="E8" s="56">
+        <v>1248</v>
+      </c>
+      <c r="F8" s="56">
+        <v>1333</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1418</v>
+      </c>
+      <c r="H8" s="56">
+        <v>1503</v>
+      </c>
+      <c r="I8" s="56">
+        <v>1548</v>
+      </c>
+      <c r="J8" s="56">
+        <v>1633</v>
+      </c>
+      <c r="K8" s="56">
+        <v>1718</v>
+      </c>
+      <c r="L8" s="56">
+        <v>1803</v>
+      </c>
+      <c r="M8" s="56">
+        <v>1848</v>
+      </c>
+      <c r="N8" s="56">
+        <v>1933</v>
+      </c>
+      <c r="O8" s="56">
+        <v>2018</v>
+      </c>
+      <c r="P8" s="56">
+        <v>2103</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>2148</v>
+      </c>
+      <c r="R8" s="56">
+        <v>2233</v>
+      </c>
+      <c r="S8" s="56">
+        <v>2318</v>
+      </c>
+      <c r="T8" s="56">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56">
+        <v>1042</v>
+      </c>
+      <c r="C9" s="56">
+        <v>1127</v>
+      </c>
+      <c r="D9" s="56">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1257</v>
+      </c>
+      <c r="F9" s="56">
+        <v>1342</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1427</v>
+      </c>
+      <c r="H9" s="56">
+        <v>1512</v>
+      </c>
+      <c r="I9" s="56">
+        <v>1557</v>
+      </c>
+      <c r="J9" s="56">
+        <v>1642</v>
+      </c>
+      <c r="K9" s="56">
+        <v>1727</v>
+      </c>
+      <c r="L9" s="56">
+        <v>1812</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1857</v>
+      </c>
+      <c r="N9" s="56">
+        <v>1942</v>
+      </c>
+      <c r="O9" s="56">
+        <v>2027</v>
+      </c>
+      <c r="P9" s="56">
+        <v>2112</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>2157</v>
+      </c>
+      <c r="R9" s="56">
+        <v>2242</v>
+      </c>
+      <c r="S9" s="56">
+        <v>2327</v>
+      </c>
+      <c r="T9" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56">
+        <v>1044</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="56">
+        <v>1214</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1259</v>
+      </c>
+      <c r="F10" s="56">
+        <v>1344</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1429</v>
+      </c>
+      <c r="H10" s="56">
+        <v>1514</v>
+      </c>
+      <c r="I10" s="56">
+        <v>1559</v>
+      </c>
+      <c r="J10" s="56">
+        <v>1644</v>
+      </c>
+      <c r="K10" s="56">
+        <v>1729</v>
+      </c>
+      <c r="L10" s="56">
+        <v>1814</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1859</v>
+      </c>
+      <c r="N10" s="56">
+        <v>1944</v>
+      </c>
+      <c r="O10" s="56">
+        <v>2029</v>
+      </c>
+      <c r="P10" s="56">
+        <v>2114</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>2159</v>
+      </c>
+      <c r="R10" s="56">
+        <v>2244</v>
+      </c>
+      <c r="S10" s="56">
+        <v>2329</v>
+      </c>
+      <c r="T10" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="56">
+        <v>1052</v>
+      </c>
+      <c r="C11" s="56">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="56">
+        <v>1222</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1307</v>
+      </c>
+      <c r="F11" s="56">
+        <v>1352</v>
+      </c>
+      <c r="G11" s="56">
+        <v>1437</v>
+      </c>
+      <c r="H11" s="56">
+        <v>1522</v>
+      </c>
+      <c r="I11" s="56">
+        <v>1607</v>
+      </c>
+      <c r="J11" s="56">
+        <v>1652</v>
+      </c>
+      <c r="K11" s="56">
+        <v>1737</v>
+      </c>
+      <c r="L11" s="56">
+        <v>1822</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1907</v>
+      </c>
+      <c r="N11" s="56">
+        <v>1952</v>
+      </c>
+      <c r="O11" s="56">
+        <v>2037</v>
+      </c>
+      <c r="P11" s="56">
+        <v>2122</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>2207</v>
+      </c>
+      <c r="R11" s="56">
+        <v>2252</v>
+      </c>
+      <c r="S11" s="56">
+        <v>2337</v>
+      </c>
+      <c r="T11" s="57"/>
+    </row>
+    <row r="12" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="56">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="56">
+        <v>1145</v>
+      </c>
+      <c r="D12" s="56">
+        <v>1230</v>
+      </c>
+      <c r="E12" s="56">
+        <v>1315</v>
+      </c>
+      <c r="F12" s="56">
+        <v>1400</v>
+      </c>
+      <c r="G12" s="56">
+        <v>1445</v>
+      </c>
+      <c r="H12" s="56">
+        <v>1530</v>
+      </c>
+      <c r="I12" s="56">
+        <v>1615</v>
+      </c>
+      <c r="J12" s="56">
+        <v>1700</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1745</v>
+      </c>
+      <c r="L12" s="56">
+        <v>1830</v>
+      </c>
+      <c r="M12" s="56">
+        <v>1915</v>
+      </c>
+      <c r="N12" s="56">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="56">
+        <v>2045</v>
+      </c>
+      <c r="P12" s="56">
+        <v>2130</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>2215</v>
+      </c>
+      <c r="R12" s="56">
+        <v>2300</v>
+      </c>
+      <c r="S12" s="56">
+        <v>2345</v>
+      </c>
+      <c r="T12" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="61">
+        <v>922</v>
+      </c>
+      <c r="C2" s="61">
+        <v>1007</v>
+      </c>
+      <c r="D2" s="61">
+        <v>1052</v>
+      </c>
+      <c r="E2" s="61">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="61">
+        <v>1222</v>
+      </c>
+      <c r="G2" s="61">
+        <v>1307</v>
+      </c>
+      <c r="H2" s="61">
+        <v>1352</v>
+      </c>
+      <c r="I2" s="61">
+        <v>1437</v>
+      </c>
+      <c r="J2" s="61">
+        <v>1522</v>
+      </c>
+      <c r="K2" s="61">
+        <v>1607</v>
+      </c>
+      <c r="L2" s="61">
+        <v>1652</v>
+      </c>
+      <c r="M2" s="61">
+        <v>1737</v>
+      </c>
+      <c r="N2" s="61">
+        <v>1822</v>
+      </c>
+      <c r="O2" s="61">
+        <v>1907</v>
+      </c>
+      <c r="P2" s="61">
+        <v>1952</v>
+      </c>
+      <c r="Q2" s="61">
+        <v>2037</v>
+      </c>
+      <c r="R2" s="61">
+        <v>2122</v>
+      </c>
+      <c r="S2" s="61">
+        <v>2207</v>
+      </c>
+      <c r="T2" s="61">
+        <v>2252</v>
+      </c>
+      <c r="U2" s="61">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="61">
+        <v>930</v>
+      </c>
+      <c r="C3" s="61">
+        <v>1015</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1145</v>
+      </c>
+      <c r="F3" s="61">
+        <v>1230</v>
+      </c>
+      <c r="G3" s="61">
+        <v>1315</v>
+      </c>
+      <c r="H3" s="61">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="61">
+        <v>1445</v>
+      </c>
+      <c r="J3" s="61">
+        <v>1530</v>
+      </c>
+      <c r="K3" s="61">
+        <v>1615</v>
+      </c>
+      <c r="L3" s="61">
+        <v>1700</v>
+      </c>
+      <c r="M3" s="61">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="61">
+        <v>1830</v>
+      </c>
+      <c r="O3" s="61">
+        <v>1915</v>
+      </c>
+      <c r="P3" s="61">
+        <v>2000</v>
+      </c>
+      <c r="Q3" s="61">
+        <v>2045</v>
+      </c>
+      <c r="R3" s="61">
+        <v>2130</v>
+      </c>
+      <c r="S3" s="61">
+        <v>2215</v>
+      </c>
+      <c r="T3" s="61">
+        <v>2300</v>
+      </c>
+      <c r="U3" s="61">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="61">
+        <v>940</v>
+      </c>
+      <c r="C4" s="61">
+        <v>1025</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1110</v>
+      </c>
+      <c r="E4" s="61">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="61">
+        <v>1240</v>
+      </c>
+      <c r="G4" s="61">
+        <v>1325</v>
+      </c>
+      <c r="H4" s="61">
+        <v>1410</v>
+      </c>
+      <c r="I4" s="61">
+        <v>1455</v>
+      </c>
+      <c r="J4" s="61">
+        <v>1540</v>
+      </c>
+      <c r="K4" s="61">
+        <v>1625</v>
+      </c>
+      <c r="L4" s="61">
+        <v>1710</v>
+      </c>
+      <c r="M4" s="61">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="61">
+        <v>1840</v>
+      </c>
+      <c r="O4" s="61">
+        <v>1925</v>
+      </c>
+      <c r="P4" s="61">
+        <v>2010</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>2055</v>
+      </c>
+      <c r="R4" s="61">
+        <v>2140</v>
+      </c>
+      <c r="S4" s="61">
+        <v>2225</v>
+      </c>
+      <c r="T4" s="61">
+        <v>2310</v>
+      </c>
+      <c r="U4" s="61">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="61">
+        <v>947</v>
+      </c>
+      <c r="C5" s="61">
+        <v>1032</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1117</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1202</v>
+      </c>
+      <c r="F5" s="61">
+        <v>1247</v>
+      </c>
+      <c r="G5" s="61">
+        <v>1332</v>
+      </c>
+      <c r="H5" s="61">
+        <v>1417</v>
+      </c>
+      <c r="I5" s="61">
+        <v>1502</v>
+      </c>
+      <c r="J5" s="61">
+        <v>1547</v>
+      </c>
+      <c r="K5" s="61">
+        <v>1632</v>
+      </c>
+      <c r="L5" s="61">
+        <v>1717</v>
+      </c>
+      <c r="M5" s="61">
+        <v>1802</v>
+      </c>
+      <c r="N5" s="61">
+        <v>1847</v>
+      </c>
+      <c r="O5" s="61">
+        <v>1932</v>
+      </c>
+      <c r="P5" s="61">
+        <v>2017</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>2102</v>
+      </c>
+      <c r="R5" s="61">
+        <v>2147</v>
+      </c>
+      <c r="S5" s="61">
+        <v>2232</v>
+      </c>
+      <c r="T5" s="61">
+        <v>2317</v>
+      </c>
+      <c r="U5" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="61">
+        <v>948</v>
+      </c>
+      <c r="C6" s="61">
+        <v>1033</v>
+      </c>
+      <c r="D6" s="61">
+        <v>1118</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1203</v>
+      </c>
+      <c r="F6" s="61">
+        <v>1248</v>
+      </c>
+      <c r="G6" s="61">
+        <v>1333</v>
+      </c>
+      <c r="H6" s="61">
+        <v>1418</v>
+      </c>
+      <c r="I6" s="61">
+        <v>1503</v>
+      </c>
+      <c r="J6" s="61">
+        <v>1548</v>
+      </c>
+      <c r="K6" s="61">
+        <v>1633</v>
+      </c>
+      <c r="L6" s="61">
+        <v>1718</v>
+      </c>
+      <c r="M6" s="61">
+        <v>1803</v>
+      </c>
+      <c r="N6" s="61">
+        <v>1848</v>
+      </c>
+      <c r="O6" s="61">
+        <v>1933</v>
+      </c>
+      <c r="P6" s="61">
+        <v>2018</v>
+      </c>
+      <c r="Q6" s="61">
+        <v>2103</v>
+      </c>
+      <c r="R6" s="61">
+        <v>2148</v>
+      </c>
+      <c r="S6" s="61">
+        <v>2233</v>
+      </c>
+      <c r="T6" s="61">
+        <v>2318</v>
+      </c>
+      <c r="U6" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="61">
+        <v>949</v>
+      </c>
+      <c r="C7" s="61">
+        <v>1034</v>
+      </c>
+      <c r="D7" s="61">
+        <v>1119</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1204</v>
+      </c>
+      <c r="F7" s="61">
+        <v>1249</v>
+      </c>
+      <c r="G7" s="61">
+        <v>1334</v>
+      </c>
+      <c r="H7" s="61">
+        <v>1419</v>
+      </c>
+      <c r="I7" s="61">
+        <v>1504</v>
+      </c>
+      <c r="J7" s="61">
+        <v>1549</v>
+      </c>
+      <c r="K7" s="61">
+        <v>1634</v>
+      </c>
+      <c r="L7" s="61">
+        <v>1719</v>
+      </c>
+      <c r="M7" s="61">
+        <v>1804</v>
+      </c>
+      <c r="N7" s="61">
+        <v>1849</v>
+      </c>
+      <c r="O7" s="61">
+        <v>1934</v>
+      </c>
+      <c r="P7" s="61">
+        <v>2019</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>2104</v>
+      </c>
+      <c r="R7" s="61">
+        <v>2149</v>
+      </c>
+      <c r="S7" s="61">
+        <v>2234</v>
+      </c>
+      <c r="T7" s="61">
+        <v>2319</v>
+      </c>
+      <c r="U7" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="61">
+        <v>951</v>
+      </c>
+      <c r="C8" s="61">
+        <v>1036</v>
+      </c>
+      <c r="D8" s="61">
+        <v>1121</v>
+      </c>
+      <c r="E8" s="61">
+        <v>1206</v>
+      </c>
+      <c r="F8" s="61">
+        <v>1251</v>
+      </c>
+      <c r="G8" s="61">
+        <v>1336</v>
+      </c>
+      <c r="H8" s="61">
+        <v>1421</v>
+      </c>
+      <c r="I8" s="61">
+        <v>1506</v>
+      </c>
+      <c r="J8" s="61">
+        <v>1551</v>
+      </c>
+      <c r="K8" s="61">
+        <v>1636</v>
+      </c>
+      <c r="L8" s="61">
+        <v>1721</v>
+      </c>
+      <c r="M8" s="61">
+        <v>1806</v>
+      </c>
+      <c r="N8" s="61">
+        <v>1851</v>
+      </c>
+      <c r="O8" s="61">
+        <v>1936</v>
+      </c>
+      <c r="P8" s="61">
+        <v>2021</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>2106</v>
+      </c>
+      <c r="R8" s="61">
+        <v>2151</v>
+      </c>
+      <c r="S8" s="61">
+        <v>2236</v>
+      </c>
+      <c r="T8" s="61">
+        <v>2321</v>
+      </c>
+      <c r="U8" s="62"/>
+    </row>
+    <row r="9" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="61">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="61">
+        <v>1046</v>
+      </c>
+      <c r="D9" s="61">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1216</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1301</v>
+      </c>
+      <c r="G9" s="61">
+        <v>1346</v>
+      </c>
+      <c r="H9" s="61">
+        <v>1431</v>
+      </c>
+      <c r="I9" s="61">
+        <v>1516</v>
+      </c>
+      <c r="J9" s="61">
+        <v>1601</v>
+      </c>
+      <c r="K9" s="61">
+        <v>1646</v>
+      </c>
+      <c r="L9" s="61">
+        <v>1731</v>
+      </c>
+      <c r="M9" s="61">
+        <v>1816</v>
+      </c>
+      <c r="N9" s="61">
+        <v>1901</v>
+      </c>
+      <c r="O9" s="61">
+        <v>1946</v>
+      </c>
+      <c r="P9" s="61">
+        <v>2031</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>2116</v>
+      </c>
+      <c r="R9" s="61">
+        <v>2201</v>
+      </c>
+      <c r="S9" s="61">
+        <v>2246</v>
+      </c>
+      <c r="T9" s="61">
+        <v>2331</v>
+      </c>
+      <c r="U9" s="62"/>
+    </row>
+    <row r="10" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="61">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="61">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="61">
+        <v>1134</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1219</v>
+      </c>
+      <c r="F10" s="61">
+        <v>1304</v>
+      </c>
+      <c r="G10" s="61">
+        <v>1349</v>
+      </c>
+      <c r="H10" s="61">
+        <v>1434</v>
+      </c>
+      <c r="I10" s="61">
+        <v>1519</v>
+      </c>
+      <c r="J10" s="61">
+        <v>1604</v>
+      </c>
+      <c r="K10" s="61">
+        <v>1649</v>
+      </c>
+      <c r="L10" s="61">
+        <v>1734</v>
+      </c>
+      <c r="M10" s="61">
+        <v>1819</v>
+      </c>
+      <c r="N10" s="61">
+        <v>1904</v>
+      </c>
+      <c r="O10" s="61">
+        <v>1949</v>
+      </c>
+      <c r="P10" s="61">
+        <v>2034</v>
+      </c>
+      <c r="Q10" s="61">
+        <v>2119</v>
+      </c>
+      <c r="R10" s="61">
+        <v>2204</v>
+      </c>
+      <c r="S10" s="61">
+        <v>2249</v>
+      </c>
+      <c r="T10" s="61">
+        <v>2334</v>
+      </c>
+      <c r="U10" s="62"/>
+    </row>
+    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="61">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="61">
+        <v>1051</v>
+      </c>
+      <c r="D11" s="61">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1221</v>
+      </c>
+      <c r="F11" s="61">
+        <v>1306</v>
+      </c>
+      <c r="G11" s="61">
+        <v>1351</v>
+      </c>
+      <c r="H11" s="61">
+        <v>1436</v>
+      </c>
+      <c r="I11" s="61">
+        <v>1521</v>
+      </c>
+      <c r="J11" s="61">
+        <v>1606</v>
+      </c>
+      <c r="K11" s="61">
+        <v>1651</v>
+      </c>
+      <c r="L11" s="61">
+        <v>1736</v>
+      </c>
+      <c r="M11" s="61">
+        <v>1821</v>
+      </c>
+      <c r="N11" s="61">
+        <v>1906</v>
+      </c>
+      <c r="O11" s="61">
+        <v>1951</v>
+      </c>
+      <c r="P11" s="61">
+        <v>2036</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>2121</v>
+      </c>
+      <c r="R11" s="61">
+        <v>2206</v>
+      </c>
+      <c r="S11" s="61">
+        <v>2251</v>
+      </c>
+      <c r="T11" s="61">
+        <v>2336</v>
+      </c>
+      <c r="U11" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67">
+        <v>925</v>
+      </c>
+      <c r="G2" s="67">
+        <v>1010</v>
+      </c>
+      <c r="H2" s="67">
+        <v>1055</v>
+      </c>
+      <c r="I2" s="67">
+        <v>1140</v>
+      </c>
+      <c r="J2" s="67">
+        <v>1225</v>
+      </c>
+      <c r="K2" s="67">
+        <v>1310</v>
+      </c>
+      <c r="L2" s="67">
+        <v>1355</v>
+      </c>
+      <c r="M2" s="67">
+        <v>1440</v>
+      </c>
+      <c r="N2" s="67">
+        <v>1525</v>
+      </c>
+      <c r="O2" s="67">
+        <v>1610</v>
+      </c>
+      <c r="P2" s="67">
+        <v>1655</v>
+      </c>
+      <c r="Q2" s="67">
+        <v>1740</v>
+      </c>
+      <c r="R2" s="67">
+        <v>1825</v>
+      </c>
+      <c r="S2" s="67">
+        <v>1910</v>
+      </c>
+      <c r="T2" s="67">
+        <v>1955</v>
+      </c>
+      <c r="U2" s="67">
+        <v>2040</v>
+      </c>
+      <c r="V2" s="70">
+        <v>2125</v>
+      </c>
+      <c r="W2" s="70">
+        <v>2210</v>
+      </c>
+      <c r="X2" s="70">
+        <v>2255</v>
+      </c>
+      <c r="Y2" s="70">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67">
+        <v>930</v>
+      </c>
+      <c r="G3" s="67">
+        <v>1015</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1100</v>
+      </c>
+      <c r="I3" s="67">
+        <v>1145</v>
+      </c>
+      <c r="J3" s="67">
+        <v>1230</v>
+      </c>
+      <c r="K3" s="67">
+        <v>1315</v>
+      </c>
+      <c r="L3" s="67">
+        <v>1400</v>
+      </c>
+      <c r="M3" s="67">
+        <v>1445</v>
+      </c>
+      <c r="N3" s="67">
+        <v>1530</v>
+      </c>
+      <c r="O3" s="67">
+        <v>1615</v>
+      </c>
+      <c r="P3" s="67">
+        <v>1700</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>1745</v>
+      </c>
+      <c r="R3" s="67">
+        <v>1830</v>
+      </c>
+      <c r="S3" s="67">
+        <v>1915</v>
+      </c>
+      <c r="T3" s="67">
+        <v>2000</v>
+      </c>
+      <c r="U3" s="67">
+        <v>2045</v>
+      </c>
+      <c r="V3" s="70">
+        <v>2130</v>
+      </c>
+      <c r="W3" s="70">
+        <v>2215</v>
+      </c>
+      <c r="X3" s="70">
+        <v>2300</v>
+      </c>
+      <c r="Y3" s="70">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67">
+        <v>728</v>
+      </c>
+      <c r="C4" s="67">
+        <v>743</v>
+      </c>
+      <c r="D4" s="67">
+        <v>813</v>
+      </c>
+      <c r="E4" s="67">
+        <v>828</v>
+      </c>
+      <c r="F4" s="67">
+        <v>934</v>
+      </c>
+      <c r="G4" s="67">
+        <v>1019</v>
+      </c>
+      <c r="H4" s="67">
+        <v>1104</v>
+      </c>
+      <c r="I4" s="67">
+        <v>1149</v>
+      </c>
+      <c r="J4" s="67">
+        <v>1234</v>
+      </c>
+      <c r="K4" s="67">
+        <v>1319</v>
+      </c>
+      <c r="L4" s="67">
+        <v>1404</v>
+      </c>
+      <c r="M4" s="67">
+        <v>1449</v>
+      </c>
+      <c r="N4" s="67">
+        <v>1534</v>
+      </c>
+      <c r="O4" s="67">
+        <v>1619</v>
+      </c>
+      <c r="P4" s="67">
+        <v>1704</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>1749</v>
+      </c>
+      <c r="R4" s="67">
+        <v>1834</v>
+      </c>
+      <c r="S4" s="67">
+        <v>1919</v>
+      </c>
+      <c r="T4" s="67">
+        <v>2004</v>
+      </c>
+      <c r="U4" s="67">
+        <v>2049</v>
+      </c>
+      <c r="V4" s="70">
+        <v>2134</v>
+      </c>
+      <c r="W4" s="70">
+        <v>2219</v>
+      </c>
+      <c r="X4" s="70">
+        <v>2304</v>
+      </c>
+      <c r="Y4" s="70">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67">
+        <v>738</v>
+      </c>
+      <c r="C5" s="67">
+        <v>753</v>
+      </c>
+      <c r="D5" s="67">
+        <v>823</v>
+      </c>
+      <c r="E5" s="67">
+        <v>838</v>
+      </c>
+      <c r="F5" s="67">
+        <v>944</v>
+      </c>
+      <c r="G5" s="67">
+        <v>1029</v>
+      </c>
+      <c r="H5" s="67">
+        <v>1114</v>
+      </c>
+      <c r="I5" s="67">
+        <v>1159</v>
+      </c>
+      <c r="J5" s="67">
+        <v>1244</v>
+      </c>
+      <c r="K5" s="67">
+        <v>1329</v>
+      </c>
+      <c r="L5" s="67">
+        <v>1414</v>
+      </c>
+      <c r="M5" s="67">
+        <v>1459</v>
+      </c>
+      <c r="N5" s="67">
+        <v>1544</v>
+      </c>
+      <c r="O5" s="67">
+        <v>1629</v>
+      </c>
+      <c r="P5" s="67">
+        <v>1714</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>1759</v>
+      </c>
+      <c r="R5" s="67">
+        <v>1844</v>
+      </c>
+      <c r="S5" s="67">
+        <v>1929</v>
+      </c>
+      <c r="T5" s="67">
+        <v>2014</v>
+      </c>
+      <c r="U5" s="67">
+        <v>2059</v>
+      </c>
+      <c r="V5" s="70">
+        <v>2144</v>
+      </c>
+      <c r="W5" s="70">
+        <v>2229</v>
+      </c>
+      <c r="X5" s="70">
+        <v>2314</v>
+      </c>
+      <c r="Y5" s="70">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67">
+        <v>739</v>
+      </c>
+      <c r="C6" s="67">
+        <v>754</v>
+      </c>
+      <c r="D6" s="67">
+        <v>824</v>
+      </c>
+      <c r="E6" s="67">
+        <v>839</v>
+      </c>
+      <c r="F6" s="67">
+        <v>945</v>
+      </c>
+      <c r="G6" s="67">
+        <v>1030</v>
+      </c>
+      <c r="H6" s="67">
+        <v>1115</v>
+      </c>
+      <c r="I6" s="67">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="67">
+        <v>1245</v>
+      </c>
+      <c r="K6" s="67">
+        <v>1330</v>
+      </c>
+      <c r="L6" s="67">
+        <v>1415</v>
+      </c>
+      <c r="M6" s="67">
+        <v>1500</v>
+      </c>
+      <c r="N6" s="67">
+        <v>1545</v>
+      </c>
+      <c r="O6" s="67">
+        <v>1630</v>
+      </c>
+      <c r="P6" s="67">
+        <v>1715</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>1800</v>
+      </c>
+      <c r="R6" s="67">
+        <v>1845</v>
+      </c>
+      <c r="S6" s="67">
+        <v>1930</v>
+      </c>
+      <c r="T6" s="67">
+        <v>2015</v>
+      </c>
+      <c r="U6" s="67">
+        <v>2100</v>
+      </c>
+      <c r="V6" s="70">
+        <v>2145</v>
+      </c>
+      <c r="W6" s="70">
+        <v>2230</v>
+      </c>
+      <c r="X6" s="70">
+        <v>2315</v>
+      </c>
+      <c r="Y6" s="70">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67">
+        <v>741</v>
+      </c>
+      <c r="C7" s="67">
+        <v>756</v>
+      </c>
+      <c r="D7" s="67">
+        <v>826</v>
+      </c>
+      <c r="E7" s="67">
+        <v>841</v>
+      </c>
+      <c r="F7" s="67">
+        <v>947</v>
+      </c>
+      <c r="G7" s="67">
+        <v>1032</v>
+      </c>
+      <c r="H7" s="67">
+        <v>1117</v>
+      </c>
+      <c r="I7" s="67">
+        <v>1202</v>
+      </c>
+      <c r="J7" s="67">
+        <v>1247</v>
+      </c>
+      <c r="K7" s="67">
+        <v>1332</v>
+      </c>
+      <c r="L7" s="67">
+        <v>1417</v>
+      </c>
+      <c r="M7" s="67">
+        <v>1502</v>
+      </c>
+      <c r="N7" s="67">
+        <v>1547</v>
+      </c>
+      <c r="O7" s="67">
+        <v>1632</v>
+      </c>
+      <c r="P7" s="67">
+        <v>1717</v>
+      </c>
+      <c r="Q7" s="67">
+        <v>1802</v>
+      </c>
+      <c r="R7" s="67">
+        <v>1847</v>
+      </c>
+      <c r="S7" s="67">
+        <v>1932</v>
+      </c>
+      <c r="T7" s="67">
+        <v>2017</v>
+      </c>
+      <c r="U7" s="67">
+        <v>2102</v>
+      </c>
+      <c r="V7" s="70">
+        <v>2147</v>
+      </c>
+      <c r="W7" s="70">
+        <v>2232</v>
+      </c>
+      <c r="X7" s="70">
+        <v>2317</v>
+      </c>
+      <c r="Y7" s="70">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="67">
+        <v>741</v>
+      </c>
+      <c r="C8" s="67">
+        <v>756</v>
+      </c>
+      <c r="D8" s="67">
+        <v>826</v>
+      </c>
+      <c r="E8" s="67">
+        <v>841</v>
+      </c>
+      <c r="F8" s="67">
+        <v>948</v>
+      </c>
+      <c r="G8" s="67">
+        <v>1033</v>
+      </c>
+      <c r="H8" s="67">
+        <v>1118</v>
+      </c>
+      <c r="I8" s="67">
+        <v>1203</v>
+      </c>
+      <c r="J8" s="67">
+        <v>1248</v>
+      </c>
+      <c r="K8" s="67">
+        <v>1333</v>
+      </c>
+      <c r="L8" s="67">
+        <v>1418</v>
+      </c>
+      <c r="M8" s="67">
+        <v>1503</v>
+      </c>
+      <c r="N8" s="67">
+        <v>1548</v>
+      </c>
+      <c r="O8" s="67">
+        <v>1633</v>
+      </c>
+      <c r="P8" s="67">
+        <v>1718</v>
+      </c>
+      <c r="Q8" s="67">
+        <v>1803</v>
+      </c>
+      <c r="R8" s="67">
+        <v>1848</v>
+      </c>
+      <c r="S8" s="67">
+        <v>1933</v>
+      </c>
+      <c r="T8" s="67">
+        <v>2018</v>
+      </c>
+      <c r="U8" s="67">
+        <v>2103</v>
+      </c>
+      <c r="V8" s="70">
+        <v>2148</v>
+      </c>
+      <c r="W8" s="70">
+        <v>2233</v>
+      </c>
+      <c r="X8" s="70">
+        <v>2318</v>
+      </c>
+      <c r="Y8" s="70">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67">
+        <v>748</v>
+      </c>
+      <c r="C9" s="67">
+        <v>803</v>
+      </c>
+      <c r="D9" s="67">
+        <v>833</v>
+      </c>
+      <c r="E9" s="67">
+        <v>848</v>
+      </c>
+      <c r="F9" s="67">
+        <v>957</v>
+      </c>
+      <c r="G9" s="67">
+        <v>1042</v>
+      </c>
+      <c r="H9" s="67">
+        <v>1127</v>
+      </c>
+      <c r="I9" s="67">
+        <v>1212</v>
+      </c>
+      <c r="J9" s="67">
+        <v>1257</v>
+      </c>
+      <c r="K9" s="67">
+        <v>1342</v>
+      </c>
+      <c r="L9" s="67">
+        <v>1427</v>
+      </c>
+      <c r="M9" s="67">
+        <v>1512</v>
+      </c>
+      <c r="N9" s="67">
+        <v>1557</v>
+      </c>
+      <c r="O9" s="67">
+        <v>1642</v>
+      </c>
+      <c r="P9" s="67">
+        <v>1727</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>1812</v>
+      </c>
+      <c r="R9" s="67">
+        <v>1857</v>
+      </c>
+      <c r="S9" s="67">
+        <v>1942</v>
+      </c>
+      <c r="T9" s="67">
+        <v>2027</v>
+      </c>
+      <c r="U9" s="67">
+        <v>2112</v>
+      </c>
+      <c r="V9" s="70">
+        <v>2157</v>
+      </c>
+      <c r="W9" s="70">
+        <v>2242</v>
+      </c>
+      <c r="X9" s="70">
+        <v>2327</v>
+      </c>
+      <c r="Y9" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="67">
+        <v>750</v>
+      </c>
+      <c r="C10" s="67">
+        <v>805</v>
+      </c>
+      <c r="D10" s="67">
+        <v>835</v>
+      </c>
+      <c r="E10" s="67">
+        <v>850</v>
+      </c>
+      <c r="F10" s="67">
+        <v>959</v>
+      </c>
+      <c r="G10" s="67">
+        <v>1044</v>
+      </c>
+      <c r="H10" s="67">
+        <v>1129</v>
+      </c>
+      <c r="I10" s="67">
+        <v>1214</v>
+      </c>
+      <c r="J10" s="67">
+        <v>1259</v>
+      </c>
+      <c r="K10" s="67">
+        <v>1344</v>
+      </c>
+      <c r="L10" s="67">
+        <v>1429</v>
+      </c>
+      <c r="M10" s="67">
+        <v>1514</v>
+      </c>
+      <c r="N10" s="67">
+        <v>1559</v>
+      </c>
+      <c r="O10" s="67">
+        <v>1644</v>
+      </c>
+      <c r="P10" s="67">
+        <v>1729</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>1814</v>
+      </c>
+      <c r="R10" s="67">
+        <v>1859</v>
+      </c>
+      <c r="S10" s="67">
+        <v>1944</v>
+      </c>
+      <c r="T10" s="67">
+        <v>2029</v>
+      </c>
+      <c r="U10" s="67">
+        <v>2114</v>
+      </c>
+      <c r="V10" s="70">
+        <v>2159</v>
+      </c>
+      <c r="W10" s="70">
+        <v>2244</v>
+      </c>
+      <c r="X10" s="70">
+        <v>2329</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="67">
+        <v>754</v>
+      </c>
+      <c r="C11" s="67">
+        <v>809</v>
+      </c>
+      <c r="D11" s="67">
+        <v>839</v>
+      </c>
+      <c r="E11" s="67">
+        <v>854</v>
+      </c>
+      <c r="F11" s="67">
+        <v>1007</v>
+      </c>
+      <c r="G11" s="67">
+        <v>1052</v>
+      </c>
+      <c r="H11" s="67">
+        <v>1137</v>
+      </c>
+      <c r="I11" s="67">
+        <v>1222</v>
+      </c>
+      <c r="J11" s="67">
+        <v>1307</v>
+      </c>
+      <c r="K11" s="67">
+        <v>1352</v>
+      </c>
+      <c r="L11" s="67">
+        <v>1437</v>
+      </c>
+      <c r="M11" s="67">
+        <v>1522</v>
+      </c>
+      <c r="N11" s="67">
+        <v>1607</v>
+      </c>
+      <c r="O11" s="67">
+        <v>1652</v>
+      </c>
+      <c r="P11" s="67">
+        <v>1737</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>1822</v>
+      </c>
+      <c r="R11" s="67">
+        <v>1907</v>
+      </c>
+      <c r="S11" s="67">
+        <v>1952</v>
+      </c>
+      <c r="T11" s="67">
+        <v>2037</v>
+      </c>
+      <c r="U11" s="67">
+        <v>2122</v>
+      </c>
+      <c r="V11" s="70">
+        <v>2207</v>
+      </c>
+      <c r="W11" s="70">
+        <v>2252</v>
+      </c>
+      <c r="X11" s="70">
+        <v>2337</v>
+      </c>
+      <c r="Y11" s="69"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="67">
+        <v>757</v>
+      </c>
+      <c r="C12" s="67">
+        <v>812</v>
+      </c>
+      <c r="D12" s="67">
+        <v>842</v>
+      </c>
+      <c r="E12" s="67">
+        <v>857</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="67">
+        <v>800</v>
+      </c>
+      <c r="C13" s="67">
+        <v>815</v>
+      </c>
+      <c r="D13" s="67">
+        <v>845</v>
+      </c>
+      <c r="E13" s="67">
+        <v>900</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="75">
+        <v>847</v>
+      </c>
+      <c r="C2" s="75">
+        <v>922</v>
+      </c>
+      <c r="D2" s="75">
+        <v>1007</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1052</v>
+      </c>
+      <c r="F2" s="75">
+        <v>1137</v>
+      </c>
+      <c r="G2" s="75">
+        <v>1222</v>
+      </c>
+      <c r="H2" s="75">
+        <v>1307</v>
+      </c>
+      <c r="I2" s="75">
+        <v>1352</v>
+      </c>
+      <c r="J2" s="75">
+        <v>1437</v>
+      </c>
+      <c r="K2" s="75">
+        <v>1522</v>
+      </c>
+      <c r="L2" s="75">
+        <v>1607</v>
+      </c>
+      <c r="M2" s="75">
+        <v>1627</v>
+      </c>
+      <c r="N2" s="75">
+        <v>1652</v>
+      </c>
+      <c r="O2" s="75">
+        <v>1717</v>
+      </c>
+      <c r="P2" s="75">
+        <v>1737</v>
+      </c>
+      <c r="Q2" s="75">
+        <v>1822</v>
+      </c>
+      <c r="R2" s="75">
+        <v>1907</v>
+      </c>
+      <c r="S2" s="75">
+        <v>1952</v>
+      </c>
+      <c r="T2" s="75">
+        <v>2037</v>
+      </c>
+      <c r="U2" s="75">
+        <v>2122</v>
+      </c>
+      <c r="V2" s="77">
+        <v>2207</v>
+      </c>
+      <c r="W2" s="77">
+        <v>2252</v>
+      </c>
+      <c r="X2" s="77">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="75">
+        <v>853</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+    </row>
+    <row r="4" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75">
+        <v>930</v>
+      </c>
+      <c r="D4" s="75">
+        <v>1015</v>
+      </c>
+      <c r="E4" s="75">
+        <v>1100</v>
+      </c>
+      <c r="F4" s="75">
+        <v>1145</v>
+      </c>
+      <c r="G4" s="75">
+        <v>1230</v>
+      </c>
+      <c r="H4" s="75">
+        <v>1315</v>
+      </c>
+      <c r="I4" s="75">
+        <v>1400</v>
+      </c>
+      <c r="J4" s="75">
+        <v>1445</v>
+      </c>
+      <c r="K4" s="75">
+        <v>1530</v>
+      </c>
+      <c r="L4" s="75">
+        <v>1615</v>
+      </c>
+      <c r="M4" s="75">
+        <v>1635</v>
+      </c>
+      <c r="N4" s="75">
+        <v>1700</v>
+      </c>
+      <c r="O4" s="75">
+        <v>1725</v>
+      </c>
+      <c r="P4" s="75">
+        <v>1745</v>
+      </c>
+      <c r="Q4" s="75">
+        <v>1830</v>
+      </c>
+      <c r="R4" s="75">
+        <v>1915</v>
+      </c>
+      <c r="S4" s="75">
+        <v>2000</v>
+      </c>
+      <c r="T4" s="75">
+        <v>2045</v>
+      </c>
+      <c r="U4" s="75">
+        <v>2130</v>
+      </c>
+      <c r="V4" s="79">
+        <v>2215</v>
+      </c>
+      <c r="W4" s="79">
+        <v>2300</v>
+      </c>
+      <c r="X4" s="79">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75">
+        <v>940</v>
+      </c>
+      <c r="D5" s="75">
+        <v>1025</v>
+      </c>
+      <c r="E5" s="75">
+        <v>1110</v>
+      </c>
+      <c r="F5" s="75">
+        <v>1155</v>
+      </c>
+      <c r="G5" s="75">
+        <v>1240</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1325</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1410</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1455</v>
+      </c>
+      <c r="K5" s="75">
+        <v>1540</v>
+      </c>
+      <c r="L5" s="75">
+        <v>1625</v>
+      </c>
+      <c r="M5" s="75">
+        <v>1645</v>
+      </c>
+      <c r="N5" s="75">
+        <v>1710</v>
+      </c>
+      <c r="O5" s="75">
+        <v>1735</v>
+      </c>
+      <c r="P5" s="75">
+        <v>1755</v>
+      </c>
+      <c r="Q5" s="75">
+        <v>1840</v>
+      </c>
+      <c r="R5" s="75">
+        <v>1925</v>
+      </c>
+      <c r="S5" s="75">
+        <v>2010</v>
+      </c>
+      <c r="T5" s="75">
+        <v>2055</v>
+      </c>
+      <c r="U5" s="75">
+        <v>2140</v>
+      </c>
+      <c r="V5" s="79">
+        <v>2225</v>
+      </c>
+      <c r="W5" s="79">
+        <v>2310</v>
+      </c>
+      <c r="X5" s="79">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75">
+        <v>947</v>
+      </c>
+      <c r="D6" s="75">
+        <v>1032</v>
+      </c>
+      <c r="E6" s="75">
+        <v>1117</v>
+      </c>
+      <c r="F6" s="75">
+        <v>1202</v>
+      </c>
+      <c r="G6" s="75">
+        <v>1247</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1332</v>
+      </c>
+      <c r="I6" s="75">
+        <v>1417</v>
+      </c>
+      <c r="J6" s="75">
+        <v>1502</v>
+      </c>
+      <c r="K6" s="75">
+        <v>1547</v>
+      </c>
+      <c r="L6" s="75">
+        <v>1632</v>
+      </c>
+      <c r="M6" s="75">
+        <v>1652</v>
+      </c>
+      <c r="N6" s="75">
+        <v>1717</v>
+      </c>
+      <c r="O6" s="75">
+        <v>1742</v>
+      </c>
+      <c r="P6" s="75">
+        <v>1802</v>
+      </c>
+      <c r="Q6" s="75">
+        <v>1847</v>
+      </c>
+      <c r="R6" s="75">
+        <v>1932</v>
+      </c>
+      <c r="S6" s="75">
+        <v>2017</v>
+      </c>
+      <c r="T6" s="75">
+        <v>2102</v>
+      </c>
+      <c r="U6" s="75">
+        <v>2147</v>
+      </c>
+      <c r="V6" s="79">
+        <v>2232</v>
+      </c>
+      <c r="W6" s="79">
+        <v>2317</v>
+      </c>
+      <c r="X6" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75">
+        <v>948</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1033</v>
+      </c>
+      <c r="E7" s="75">
+        <v>1118</v>
+      </c>
+      <c r="F7" s="75">
+        <v>1203</v>
+      </c>
+      <c r="G7" s="75">
+        <v>1248</v>
+      </c>
+      <c r="H7" s="75">
+        <v>1333</v>
+      </c>
+      <c r="I7" s="75">
+        <v>1418</v>
+      </c>
+      <c r="J7" s="75">
+        <v>1503</v>
+      </c>
+      <c r="K7" s="75">
+        <v>1548</v>
+      </c>
+      <c r="L7" s="75">
+        <v>1633</v>
+      </c>
+      <c r="M7" s="75">
+        <v>1653</v>
+      </c>
+      <c r="N7" s="75">
+        <v>1718</v>
+      </c>
+      <c r="O7" s="75">
+        <v>1743</v>
+      </c>
+      <c r="P7" s="75">
+        <v>1803</v>
+      </c>
+      <c r="Q7" s="75">
+        <v>1848</v>
+      </c>
+      <c r="R7" s="75">
+        <v>1933</v>
+      </c>
+      <c r="S7" s="75">
+        <v>2018</v>
+      </c>
+      <c r="T7" s="75">
+        <v>2103</v>
+      </c>
+      <c r="U7" s="75">
+        <v>2148</v>
+      </c>
+      <c r="V7" s="79">
+        <v>2233</v>
+      </c>
+      <c r="W7" s="79">
+        <v>2318</v>
+      </c>
+      <c r="X7" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75">
+        <v>949</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1034</v>
+      </c>
+      <c r="E8" s="75">
+        <v>1119</v>
+      </c>
+      <c r="F8" s="75">
+        <v>1204</v>
+      </c>
+      <c r="G8" s="75">
+        <v>1249</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1334</v>
+      </c>
+      <c r="I8" s="75">
+        <v>1419</v>
+      </c>
+      <c r="J8" s="75">
+        <v>1504</v>
+      </c>
+      <c r="K8" s="75">
+        <v>1549</v>
+      </c>
+      <c r="L8" s="75">
+        <v>1634</v>
+      </c>
+      <c r="M8" s="75">
+        <v>1654</v>
+      </c>
+      <c r="N8" s="75">
+        <v>1719</v>
+      </c>
+      <c r="O8" s="75">
+        <v>1744</v>
+      </c>
+      <c r="P8" s="75">
+        <v>1804</v>
+      </c>
+      <c r="Q8" s="75">
+        <v>1849</v>
+      </c>
+      <c r="R8" s="75">
+        <v>1934</v>
+      </c>
+      <c r="S8" s="75">
+        <v>2019</v>
+      </c>
+      <c r="T8" s="75">
+        <v>2104</v>
+      </c>
+      <c r="U8" s="75">
+        <v>2149</v>
+      </c>
+      <c r="V8" s="79">
+        <v>2234</v>
+      </c>
+      <c r="W8" s="79">
+        <v>2319</v>
+      </c>
+      <c r="X8" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75">
+        <v>951</v>
+      </c>
+      <c r="D9" s="75">
+        <v>1036</v>
+      </c>
+      <c r="E9" s="75">
+        <v>1121</v>
+      </c>
+      <c r="F9" s="75">
+        <v>1206</v>
+      </c>
+      <c r="G9" s="75">
+        <v>1251</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1336</v>
+      </c>
+      <c r="I9" s="75">
+        <v>1421</v>
+      </c>
+      <c r="J9" s="75">
+        <v>1506</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1551</v>
+      </c>
+      <c r="L9" s="75">
+        <v>1636</v>
+      </c>
+      <c r="M9" s="75">
+        <v>1656</v>
+      </c>
+      <c r="N9" s="75">
+        <v>1721</v>
+      </c>
+      <c r="O9" s="75">
+        <v>1746</v>
+      </c>
+      <c r="P9" s="75">
+        <v>1806</v>
+      </c>
+      <c r="Q9" s="75">
+        <v>1851</v>
+      </c>
+      <c r="R9" s="75">
+        <v>1936</v>
+      </c>
+      <c r="S9" s="75">
+        <v>2021</v>
+      </c>
+      <c r="T9" s="75">
+        <v>2106</v>
+      </c>
+      <c r="U9" s="75">
+        <v>2151</v>
+      </c>
+      <c r="V9" s="79">
+        <v>2236</v>
+      </c>
+      <c r="W9" s="79">
+        <v>2321</v>
+      </c>
+      <c r="X9" s="78"/>
+    </row>
+    <row r="10" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="75">
+        <v>1046</v>
+      </c>
+      <c r="E10" s="75">
+        <v>1131</v>
+      </c>
+      <c r="F10" s="75">
+        <v>1216</v>
+      </c>
+      <c r="G10" s="75">
+        <v>1301</v>
+      </c>
+      <c r="H10" s="75">
+        <v>1346</v>
+      </c>
+      <c r="I10" s="75">
+        <v>1431</v>
+      </c>
+      <c r="J10" s="75">
+        <v>1516</v>
+      </c>
+      <c r="K10" s="75">
+        <v>1601</v>
+      </c>
+      <c r="L10" s="75">
+        <v>1646</v>
+      </c>
+      <c r="M10" s="75">
+        <v>1706</v>
+      </c>
+      <c r="N10" s="75">
+        <v>1731</v>
+      </c>
+      <c r="O10" s="75">
+        <v>1756</v>
+      </c>
+      <c r="P10" s="75">
+        <v>1816</v>
+      </c>
+      <c r="Q10" s="75">
+        <v>1901</v>
+      </c>
+      <c r="R10" s="75">
+        <v>1946</v>
+      </c>
+      <c r="S10" s="75">
+        <v>2031</v>
+      </c>
+      <c r="T10" s="75">
+        <v>2116</v>
+      </c>
+      <c r="U10" s="75">
+        <v>2201</v>
+      </c>
+      <c r="V10" s="79">
+        <v>2246</v>
+      </c>
+      <c r="W10" s="79">
+        <v>2331</v>
+      </c>
+      <c r="X10" s="78"/>
+    </row>
+    <row r="11" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75">
+        <v>1004</v>
+      </c>
+      <c r="D11" s="75">
+        <v>1049</v>
+      </c>
+      <c r="E11" s="75">
+        <v>1134</v>
+      </c>
+      <c r="F11" s="75">
+        <v>1219</v>
+      </c>
+      <c r="G11" s="75">
+        <v>1304</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1349</v>
+      </c>
+      <c r="I11" s="75">
+        <v>1434</v>
+      </c>
+      <c r="J11" s="75">
+        <v>1519</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1604</v>
+      </c>
+      <c r="L11" s="75">
+        <v>1649</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="75">
+        <v>1734</v>
+      </c>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75">
+        <v>1819</v>
+      </c>
+      <c r="Q11" s="75">
+        <v>1904</v>
+      </c>
+      <c r="R11" s="75">
+        <v>1949</v>
+      </c>
+      <c r="S11" s="75">
+        <v>2034</v>
+      </c>
+      <c r="T11" s="75">
+        <v>2119</v>
+      </c>
+      <c r="U11" s="75">
+        <v>2204</v>
+      </c>
+      <c r="V11" s="79">
+        <v>2249</v>
+      </c>
+      <c r="W11" s="79">
+        <v>2334</v>
+      </c>
+      <c r="X11" s="78"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="75">
+        <v>1051</v>
+      </c>
+      <c r="E12" s="75">
+        <v>1136</v>
+      </c>
+      <c r="F12" s="75">
+        <v>1221</v>
+      </c>
+      <c r="G12" s="75">
+        <v>1306</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1351</v>
+      </c>
+      <c r="I12" s="75">
+        <v>1436</v>
+      </c>
+      <c r="J12" s="75">
+        <v>1521</v>
+      </c>
+      <c r="K12" s="75">
+        <v>1606</v>
+      </c>
+      <c r="L12" s="75">
+        <v>1651</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75">
+        <v>1736</v>
+      </c>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75">
+        <v>1821</v>
+      </c>
+      <c r="Q12" s="75">
+        <v>1906</v>
+      </c>
+      <c r="R12" s="75">
+        <v>1951</v>
+      </c>
+      <c r="S12" s="75">
+        <v>2036</v>
+      </c>
+      <c r="T12" s="75">
+        <v>2121</v>
+      </c>
+      <c r="U12" s="75">
+        <v>2206</v>
+      </c>
+      <c r="V12" s="79">
+        <v>2251</v>
+      </c>
+      <c r="W12" s="79">
+        <v>2336</v>
+      </c>
+      <c r="X12" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="83">
+        <v>1010</v>
+      </c>
+      <c r="C2" s="83">
+        <v>1055</v>
+      </c>
+      <c r="D2" s="83">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="83">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="83">
+        <v>1310</v>
+      </c>
+      <c r="G2" s="83">
+        <v>1355</v>
+      </c>
+      <c r="H2" s="83">
+        <v>1440</v>
+      </c>
+      <c r="I2" s="83">
+        <v>1525</v>
+      </c>
+      <c r="J2" s="83">
+        <v>1610</v>
+      </c>
+      <c r="K2" s="83">
+        <v>1655</v>
+      </c>
+      <c r="L2" s="83">
+        <v>1740</v>
+      </c>
+      <c r="M2" s="83">
+        <v>1825</v>
+      </c>
+      <c r="N2" s="83">
+        <v>1910</v>
+      </c>
+      <c r="O2" s="83">
+        <v>1955</v>
+      </c>
+      <c r="P2" s="83">
+        <v>2040</v>
+      </c>
+      <c r="Q2" s="83">
+        <v>2125</v>
+      </c>
+      <c r="R2" s="83">
+        <v>2210</v>
+      </c>
+      <c r="S2" s="83">
+        <v>2255</v>
+      </c>
+      <c r="T2" s="83">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83">
+        <v>1015</v>
+      </c>
+      <c r="C3" s="83">
+        <v>1100</v>
+      </c>
+      <c r="D3" s="83">
+        <v>1145</v>
+      </c>
+      <c r="E3" s="83">
+        <v>1230</v>
+      </c>
+      <c r="F3" s="83">
+        <v>1315</v>
+      </c>
+      <c r="G3" s="83">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="83">
+        <v>1445</v>
+      </c>
+      <c r="I3" s="83">
+        <v>1530</v>
+      </c>
+      <c r="J3" s="83">
+        <v>1615</v>
+      </c>
+      <c r="K3" s="83">
+        <v>1700</v>
+      </c>
+      <c r="L3" s="83">
+        <v>1745</v>
+      </c>
+      <c r="M3" s="83">
+        <v>1830</v>
+      </c>
+      <c r="N3" s="83">
+        <v>1915</v>
+      </c>
+      <c r="O3" s="83">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="83">
+        <v>2045</v>
+      </c>
+      <c r="Q3" s="83">
+        <v>2130</v>
+      </c>
+      <c r="R3" s="83">
+        <v>2215</v>
+      </c>
+      <c r="S3" s="83">
+        <v>2300</v>
+      </c>
+      <c r="T3" s="83">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="83">
+        <v>1019</v>
+      </c>
+      <c r="C4" s="83">
+        <v>1104</v>
+      </c>
+      <c r="D4" s="83">
+        <v>1149</v>
+      </c>
+      <c r="E4" s="83">
+        <v>1234</v>
+      </c>
+      <c r="F4" s="83">
+        <v>1319</v>
+      </c>
+      <c r="G4" s="83">
+        <v>1404</v>
+      </c>
+      <c r="H4" s="83">
+        <v>1449</v>
+      </c>
+      <c r="I4" s="83">
+        <v>1534</v>
+      </c>
+      <c r="J4" s="83">
+        <v>1619</v>
+      </c>
+      <c r="K4" s="83">
+        <v>1704</v>
+      </c>
+      <c r="L4" s="83">
+        <v>1749</v>
+      </c>
+      <c r="M4" s="83">
+        <v>1834</v>
+      </c>
+      <c r="N4" s="83">
+        <v>1919</v>
+      </c>
+      <c r="O4" s="83">
+        <v>2004</v>
+      </c>
+      <c r="P4" s="83">
+        <v>2049</v>
+      </c>
+      <c r="Q4" s="83">
+        <v>2134</v>
+      </c>
+      <c r="R4" s="83">
+        <v>2219</v>
+      </c>
+      <c r="S4" s="83">
+        <v>2304</v>
+      </c>
+      <c r="T4" s="83">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="83">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="83">
+        <v>1114</v>
+      </c>
+      <c r="D5" s="83">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="83">
+        <v>1244</v>
+      </c>
+      <c r="F5" s="83">
+        <v>1329</v>
+      </c>
+      <c r="G5" s="83">
+        <v>1414</v>
+      </c>
+      <c r="H5" s="83">
+        <v>1459</v>
+      </c>
+      <c r="I5" s="83">
+        <v>1544</v>
+      </c>
+      <c r="J5" s="83">
+        <v>1629</v>
+      </c>
+      <c r="K5" s="83">
+        <v>1714</v>
+      </c>
+      <c r="L5" s="83">
+        <v>1759</v>
+      </c>
+      <c r="M5" s="83">
+        <v>1844</v>
+      </c>
+      <c r="N5" s="83">
+        <v>1929</v>
+      </c>
+      <c r="O5" s="83">
+        <v>2014</v>
+      </c>
+      <c r="P5" s="83">
+        <v>2059</v>
+      </c>
+      <c r="Q5" s="83">
+        <v>2144</v>
+      </c>
+      <c r="R5" s="83">
+        <v>2229</v>
+      </c>
+      <c r="S5" s="83">
+        <v>2314</v>
+      </c>
+      <c r="T5" s="83">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="83">
+        <v>1030</v>
+      </c>
+      <c r="C6" s="83">
+        <v>1115</v>
+      </c>
+      <c r="D6" s="83">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="83">
+        <v>1245</v>
+      </c>
+      <c r="F6" s="83">
+        <v>1330</v>
+      </c>
+      <c r="G6" s="83">
+        <v>1415</v>
+      </c>
+      <c r="H6" s="83">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="83">
+        <v>1545</v>
+      </c>
+      <c r="J6" s="83">
+        <v>1630</v>
+      </c>
+      <c r="K6" s="83">
+        <v>1715</v>
+      </c>
+      <c r="L6" s="83">
+        <v>1800</v>
+      </c>
+      <c r="M6" s="83">
+        <v>1845</v>
+      </c>
+      <c r="N6" s="83">
+        <v>1930</v>
+      </c>
+      <c r="O6" s="83">
+        <v>2015</v>
+      </c>
+      <c r="P6" s="83">
+        <v>2100</v>
+      </c>
+      <c r="Q6" s="83">
+        <v>2145</v>
+      </c>
+      <c r="R6" s="83">
+        <v>2230</v>
+      </c>
+      <c r="S6" s="83">
+        <v>2315</v>
+      </c>
+      <c r="T6" s="83">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="83">
+        <v>1032</v>
+      </c>
+      <c r="C7" s="83">
+        <v>1117</v>
+      </c>
+      <c r="D7" s="83">
+        <v>1202</v>
+      </c>
+      <c r="E7" s="83">
+        <v>1247</v>
+      </c>
+      <c r="F7" s="83">
+        <v>1332</v>
+      </c>
+      <c r="G7" s="83">
+        <v>1417</v>
+      </c>
+      <c r="H7" s="83">
+        <v>1502</v>
+      </c>
+      <c r="I7" s="83">
+        <v>1547</v>
+      </c>
+      <c r="J7" s="83">
+        <v>1632</v>
+      </c>
+      <c r="K7" s="83">
+        <v>1717</v>
+      </c>
+      <c r="L7" s="83">
+        <v>1802</v>
+      </c>
+      <c r="M7" s="83">
+        <v>1847</v>
+      </c>
+      <c r="N7" s="83">
+        <v>1932</v>
+      </c>
+      <c r="O7" s="83">
+        <v>2017</v>
+      </c>
+      <c r="P7" s="83">
+        <v>2102</v>
+      </c>
+      <c r="Q7" s="83">
+        <v>2147</v>
+      </c>
+      <c r="R7" s="83">
+        <v>2232</v>
+      </c>
+      <c r="S7" s="83">
+        <v>2317</v>
+      </c>
+      <c r="T7" s="83">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="83">
+        <v>1033</v>
+      </c>
+      <c r="C8" s="83">
+        <v>1118</v>
+      </c>
+      <c r="D8" s="83">
+        <v>1203</v>
+      </c>
+      <c r="E8" s="83">
+        <v>1248</v>
+      </c>
+      <c r="F8" s="83">
+        <v>1333</v>
+      </c>
+      <c r="G8" s="83">
+        <v>1418</v>
+      </c>
+      <c r="H8" s="83">
+        <v>1503</v>
+      </c>
+      <c r="I8" s="83">
+        <v>1548</v>
+      </c>
+      <c r="J8" s="83">
+        <v>1633</v>
+      </c>
+      <c r="K8" s="83">
+        <v>1718</v>
+      </c>
+      <c r="L8" s="83">
+        <v>1803</v>
+      </c>
+      <c r="M8" s="83">
+        <v>1848</v>
+      </c>
+      <c r="N8" s="83">
+        <v>1933</v>
+      </c>
+      <c r="O8" s="83">
+        <v>2018</v>
+      </c>
+      <c r="P8" s="83">
+        <v>2103</v>
+      </c>
+      <c r="Q8" s="83">
+        <v>2148</v>
+      </c>
+      <c r="R8" s="83">
+        <v>2233</v>
+      </c>
+      <c r="S8" s="83">
+        <v>2318</v>
+      </c>
+      <c r="T8" s="83">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="83">
+        <v>1042</v>
+      </c>
+      <c r="C9" s="83">
+        <v>1127</v>
+      </c>
+      <c r="D9" s="83">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1257</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1342</v>
+      </c>
+      <c r="G9" s="83">
+        <v>1427</v>
+      </c>
+      <c r="H9" s="83">
+        <v>1512</v>
+      </c>
+      <c r="I9" s="83">
+        <v>1557</v>
+      </c>
+      <c r="J9" s="83">
+        <v>1642</v>
+      </c>
+      <c r="K9" s="83">
+        <v>1727</v>
+      </c>
+      <c r="L9" s="83">
+        <v>1812</v>
+      </c>
+      <c r="M9" s="83">
+        <v>1857</v>
+      </c>
+      <c r="N9" s="83">
+        <v>1942</v>
+      </c>
+      <c r="O9" s="83">
+        <v>2027</v>
+      </c>
+      <c r="P9" s="83">
+        <v>2112</v>
+      </c>
+      <c r="Q9" s="83">
+        <v>2157</v>
+      </c>
+      <c r="R9" s="83">
+        <v>2242</v>
+      </c>
+      <c r="S9" s="83">
+        <v>2327</v>
+      </c>
+      <c r="T9" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="83">
+        <v>1044</v>
+      </c>
+      <c r="C10" s="83">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="83">
+        <v>1214</v>
+      </c>
+      <c r="E10" s="83">
+        <v>1259</v>
+      </c>
+      <c r="F10" s="83">
+        <v>1344</v>
+      </c>
+      <c r="G10" s="83">
+        <v>1429</v>
+      </c>
+      <c r="H10" s="83">
+        <v>1514</v>
+      </c>
+      <c r="I10" s="83">
+        <v>1559</v>
+      </c>
+      <c r="J10" s="83">
+        <v>1644</v>
+      </c>
+      <c r="K10" s="83">
+        <v>1729</v>
+      </c>
+      <c r="L10" s="83">
+        <v>1814</v>
+      </c>
+      <c r="M10" s="83">
+        <v>1859</v>
+      </c>
+      <c r="N10" s="83">
+        <v>1944</v>
+      </c>
+      <c r="O10" s="83">
+        <v>2029</v>
+      </c>
+      <c r="P10" s="83">
+        <v>2114</v>
+      </c>
+      <c r="Q10" s="83">
+        <v>2159</v>
+      </c>
+      <c r="R10" s="83">
+        <v>2244</v>
+      </c>
+      <c r="S10" s="83">
+        <v>2329</v>
+      </c>
+      <c r="T10" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="83">
+        <v>1052</v>
+      </c>
+      <c r="C11" s="83">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1222</v>
+      </c>
+      <c r="E11" s="83">
+        <v>1307</v>
+      </c>
+      <c r="F11" s="83">
+        <v>1352</v>
+      </c>
+      <c r="G11" s="83">
+        <v>1437</v>
+      </c>
+      <c r="H11" s="83">
+        <v>1522</v>
+      </c>
+      <c r="I11" s="83">
+        <v>1607</v>
+      </c>
+      <c r="J11" s="83">
+        <v>1652</v>
+      </c>
+      <c r="K11" s="83">
+        <v>1737</v>
+      </c>
+      <c r="L11" s="83">
+        <v>1822</v>
+      </c>
+      <c r="M11" s="83">
+        <v>1907</v>
+      </c>
+      <c r="N11" s="83">
+        <v>1952</v>
+      </c>
+      <c r="O11" s="83">
+        <v>2037</v>
+      </c>
+      <c r="P11" s="83">
+        <v>2122</v>
+      </c>
+      <c r="Q11" s="83">
+        <v>2207</v>
+      </c>
+      <c r="R11" s="83">
+        <v>2252</v>
+      </c>
+      <c r="S11" s="83">
+        <v>2337</v>
+      </c>
+      <c r="T11" s="84"/>
+    </row>
+    <row r="12" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="83">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="83">
+        <v>1145</v>
+      </c>
+      <c r="D12" s="83">
+        <v>1230</v>
+      </c>
+      <c r="E12" s="83">
+        <v>1315</v>
+      </c>
+      <c r="F12" s="83">
+        <v>1400</v>
+      </c>
+      <c r="G12" s="83">
+        <v>1445</v>
+      </c>
+      <c r="H12" s="83">
+        <v>1530</v>
+      </c>
+      <c r="I12" s="83">
+        <v>1615</v>
+      </c>
+      <c r="J12" s="83">
+        <v>1700</v>
+      </c>
+      <c r="K12" s="83">
+        <v>1745</v>
+      </c>
+      <c r="L12" s="83">
+        <v>1830</v>
+      </c>
+      <c r="M12" s="83">
+        <v>1915</v>
+      </c>
+      <c r="N12" s="83">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="83">
+        <v>2045</v>
+      </c>
+      <c r="P12" s="83">
+        <v>2130</v>
+      </c>
+      <c r="Q12" s="83">
+        <v>2215</v>
+      </c>
+      <c r="R12" s="83">
+        <v>2300</v>
+      </c>
+      <c r="S12" s="83">
+        <v>2345</v>
+      </c>
+      <c r="T12" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>